--- a/memo.xlsx
+++ b/memo.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkPython\TrackNet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Python_Work\TrackNet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02778C97-798E-4A60-A7F9-DFFEBC059CDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="position_2019-01-23_16-00-23.cs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>dt[s]</t>
   </si>
@@ -83,10 +91,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>p2-p1/dt</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>test_v_z</t>
   </si>
   <si>
@@ -96,11 +100,25 @@
     <t>neural</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>dv</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>pred_vz</t>
+  </si>
+  <si>
+    <t>raw_pred_z</t>
+  </si>
+  <si>
+    <t>v=p2-p1/dt</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -770,7 +788,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1460,7 +1477,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>p2-p1/dt</c:v>
+                  <c:v>v=p2-p1/dt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2241,7 +2258,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2323,7 +2339,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3654,7 +3669,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'position_2019-01-23_16-00-23.cs'!$Z$1</c:f>
+              <c:f>'position_2019-01-23_16-00-23.cs'!$AE$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3989,7 +4004,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'position_2019-01-23_16-00-23.cs'!$Z$2:$Z$98</c:f>
+              <c:f>'position_2019-01-23_16-00-23.cs'!$AE$2:$AE$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="97"/>
@@ -4439,7 +4454,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5635,7 +5649,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5652,20 +5672,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>84362</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>18649</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>62911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>249571</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>32977</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="グラフ 5"/>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5945,25 +5971,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="16" max="16" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.375" customWidth="1"/>
+    <col min="17" max="17" width="13.625" customWidth="1"/>
+    <col min="18" max="18" width="9.375" style="2" customWidth="1"/>
     <col min="19" max="19" width="12.375" customWidth="1"/>
     <col min="20" max="20" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.125" customWidth="1"/>
+    <col min="21" max="21" width="11.625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6009,10 +6036,10 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="S1" t="s">
@@ -6022,19 +6049,31 @@
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AD1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>6.9800000000000001E-2</v>
       </c>
@@ -6081,11 +6120,11 @@
         <f>A2</f>
         <v>6.9800000000000001E-2</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2">
         <f>F2*9.8*P2</f>
         <v>1.3817608E-2</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="2">
         <f>Q2</f>
         <v>1.3817608E-2</v>
       </c>
@@ -6102,25 +6141,42 @@
         <v>1.4885386819484241</v>
       </c>
       <c r="V2">
+        <f>U2</f>
+        <v>1.4885386819484241</v>
+      </c>
+      <c r="W2">
+        <f>V2</f>
+        <v>1.4885386819484241</v>
+      </c>
+      <c r="X2">
+        <v>1.3817608E-2</v>
+      </c>
+      <c r="Y2">
+        <v>1.3817608E-2</v>
+      </c>
+      <c r="Z2">
+        <v>1.0910214933625899E-3</v>
+      </c>
+      <c r="AA2">
         <v>0</v>
       </c>
-      <c r="W2">
+      <c r="AB2">
         <f>U2*P2</f>
         <v>0.10390000000000001</v>
       </c>
-      <c r="X2">
-        <f>W2-L2</f>
+      <c r="AC2">
+        <f>AB2-L2</f>
         <v>0</v>
       </c>
-      <c r="Y2">
+      <c r="AD2">
         <v>0.10390000000000001</v>
       </c>
-      <c r="Z2">
-        <f>Y2*P2</f>
+      <c r="AE2">
+        <f>AD2*P2</f>
         <v>7.2522200000000002E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.14119999999999999</v>
       </c>
@@ -6167,11 +6223,11 @@
         <f t="shared" ref="P3:P66" si="0">A3-A2</f>
         <v>7.1399999999999991E-2</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <f t="shared" ref="Q3:Q66" si="1">F3*9.8*P3</f>
         <v>1.7842859999999999E-2</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <f>Q3+R2</f>
         <v>3.1660467999999997E-2</v>
       </c>
@@ -6188,25 +6244,42 @@
         <v>7.7030812324929851E-2</v>
       </c>
       <c r="V3">
+        <f t="shared" ref="V3:V66" si="5">U3-U2</f>
+        <v>-1.4115078696234942</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W66" si="6">V3+W2</f>
+        <v>7.703081232492992E-2</v>
+      </c>
+      <c r="X3">
+        <v>1.7842859999999999E-2</v>
+      </c>
+      <c r="Y3">
+        <v>3.1660467999999997E-2</v>
+      </c>
+      <c r="Z3">
+        <v>3.4439182360572001E-3</v>
+      </c>
+      <c r="AA3">
         <v>0</v>
       </c>
-      <c r="W3">
-        <f>U3*P3+W2</f>
+      <c r="AB3">
+        <f>U3*P3+AB2</f>
         <v>0.1094</v>
       </c>
-      <c r="X3">
-        <f t="shared" ref="X3:X66" si="5">W3-L3</f>
+      <c r="AC3">
+        <f>AB3-L3</f>
         <v>0</v>
       </c>
-      <c r="Y3">
+      <c r="AD3">
         <v>5.4999999999999901E-3</v>
       </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z66" si="6">Y3*P3+Z2</f>
+      <c r="AE3">
+        <f>AD3*P3+AE2</f>
         <v>7.6449199999999995E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.21609999999999999</v>
       </c>
@@ -6253,11 +6326,11 @@
         <f t="shared" si="0"/>
         <v>7.4899999999999994E-2</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4">
         <f t="shared" si="1"/>
         <v>3.8169039999999994E-3</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <f t="shared" ref="R4:R66" si="7">Q4+R3</f>
         <v>3.5477371999999993E-2</v>
       </c>
@@ -6274,25 +6347,42 @@
         <v>7.8771695594125543E-2</v>
       </c>
       <c r="V4">
+        <f t="shared" si="5"/>
+        <v>1.7408832691956921E-3</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="6"/>
+        <v>7.8771695594125613E-2</v>
+      </c>
+      <c r="X4">
+        <v>3.8169039999999899E-3</v>
+      </c>
+      <c r="Y4">
+        <v>3.5477371999999903E-2</v>
+      </c>
+      <c r="Z4">
+        <v>6.0893175145149301E-3</v>
+      </c>
+      <c r="AA4">
         <v>7.8771695594125501E-2</v>
       </c>
-      <c r="W4">
-        <f t="shared" ref="W4:W67" si="8">U4*P4+W3</f>
+      <c r="AB4">
+        <f>U4*P4+AB3</f>
         <v>0.1153</v>
       </c>
-      <c r="X4">
-        <f t="shared" si="5"/>
+      <c r="AC4">
+        <f>AB4-L4</f>
         <v>0</v>
       </c>
-      <c r="Y4">
+      <c r="AD4">
         <v>0.46551033854484503</v>
       </c>
-      <c r="Z4">
-        <f t="shared" si="6"/>
+      <c r="AE4">
+        <f>AD4*P4+AE3</f>
         <v>4.2511644357008889E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.28649999999999998</v>
       </c>
@@ -6339,11 +6429,11 @@
         <f t="shared" si="0"/>
         <v>7.039999999999999E-2</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
         <f t="shared" si="1"/>
         <v>1.8627839999999996E-2</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="2">
         <f t="shared" si="7"/>
         <v>5.4105211999999986E-2</v>
       </c>
@@ -6360,25 +6450,42 @@
         <v>0.11505681818181814</v>
       </c>
       <c r="V5">
+        <f t="shared" si="5"/>
+        <v>3.6285122587692592E-2</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="6"/>
+        <v>0.1150568181818182</v>
+      </c>
+      <c r="X5">
+        <v>1.862784E-2</v>
+      </c>
+      <c r="Y5">
+        <v>5.4105212E-2</v>
+      </c>
+      <c r="Z5">
+        <v>9.8754277251306404E-3</v>
+      </c>
+      <c r="AA5">
         <v>0.115056818181818</v>
       </c>
-      <c r="W5">
-        <f t="shared" si="8"/>
+      <c r="AB5">
+        <f>U5*P5+AB4</f>
         <v>0.1234</v>
       </c>
-      <c r="X5">
-        <f t="shared" si="5"/>
+      <c r="AC5">
+        <f>AB5-L5</f>
         <v>0</v>
       </c>
-      <c r="Y5">
+      <c r="AD5">
         <v>0.352555602788925</v>
       </c>
-      <c r="Z5">
-        <f t="shared" si="6"/>
+      <c r="AE5">
+        <f>AD5*P5+AE4</f>
         <v>6.7331558793349205E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0.3604</v>
       </c>
@@ -6425,11 +6532,11 @@
         <f t="shared" si="0"/>
         <v>7.3900000000000021E-2</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6">
         <f t="shared" si="1"/>
         <v>3.056208400000001E-2</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="2">
         <f t="shared" si="7"/>
         <v>8.4667296000000003E-2</v>
       </c>
@@ -6446,25 +6553,42 @@
         <v>0.14614343707713146</v>
       </c>
       <c r="V6">
+        <f t="shared" si="5"/>
+        <v>3.108661889531332E-2</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="6"/>
+        <v>0.14614343707713151</v>
+      </c>
+      <c r="X6">
+        <v>3.0562084E-2</v>
+      </c>
+      <c r="Y6">
+        <v>8.4667296000000003E-2</v>
+      </c>
+      <c r="Z6">
+        <v>1.6024089396497701E-2</v>
+      </c>
+      <c r="AA6">
         <v>0.14614343707713101</v>
       </c>
-      <c r="W6">
-        <f t="shared" si="8"/>
+      <c r="AB6">
+        <f>U6*P6+AB5</f>
         <v>0.13420000000000001</v>
       </c>
-      <c r="X6">
-        <f t="shared" si="5"/>
+      <c r="AC6">
+        <f>AB6-L6</f>
         <v>0</v>
       </c>
-      <c r="Y6">
+      <c r="AD6">
         <v>0.46145680546760498</v>
       </c>
-      <c r="Z6">
-        <f t="shared" si="6"/>
+      <c r="AE6">
+        <f>AD6*P6+AE5</f>
         <v>0.10143321671740523</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0.43080000000000002</v>
       </c>
@@ -6511,11 +6635,11 @@
         <f t="shared" si="0"/>
         <v>7.0400000000000018E-2</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7">
         <f t="shared" si="1"/>
         <v>1.8627840000000007E-2</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="2">
         <f t="shared" si="7"/>
         <v>0.10329513600000001</v>
       </c>
@@ -6532,25 +6656,42 @@
         <v>0.18181818181818146</v>
       </c>
       <c r="V7">
+        <f t="shared" si="5"/>
+        <v>3.5674744741050007E-2</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="6"/>
+        <v>0.18181818181818152</v>
+      </c>
+      <c r="X7">
+        <v>-2.3678168654441799E-3</v>
+      </c>
+      <c r="Y7">
+        <v>8.2299479134555806E-2</v>
+      </c>
+      <c r="Z7">
+        <v>2.1714122601969501E-2</v>
+      </c>
+      <c r="AA7">
         <v>0.18181818181818099</v>
       </c>
-      <c r="W7">
-        <f t="shared" si="8"/>
+      <c r="AB7">
+        <f>U7*P7+AB6</f>
         <v>0.14699999999999999</v>
       </c>
-      <c r="X7">
-        <f t="shared" si="5"/>
+      <c r="AC7">
+        <f>AB7-L7</f>
         <v>0</v>
       </c>
-      <c r="Y7">
+      <c r="AD7">
         <v>0.49271342158317499</v>
       </c>
-      <c r="Z7">
-        <f t="shared" si="6"/>
+      <c r="AE7">
+        <f>AD7*P7+AE6</f>
         <v>0.13612024159686076</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0.50019999999999998</v>
       </c>
@@ -6597,11 +6738,11 @@
         <f t="shared" si="0"/>
         <v>6.9399999999999962E-2</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8">
         <f t="shared" si="1"/>
         <v>3.1285519999999983E-2</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="2">
         <f t="shared" si="7"/>
         <v>0.13458065599999999</v>
       </c>
@@ -6618,25 +6759,42 @@
         <v>0.21037463976945259</v>
       </c>
       <c r="V8">
+        <f t="shared" si="5"/>
+        <v>2.8556457951271125E-2</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="6"/>
+        <v>0.21037463976945264</v>
+      </c>
+      <c r="X8">
+        <v>-9.9607761949300697E-3</v>
+      </c>
+      <c r="Y8">
+        <v>7.2338702939625701E-2</v>
+      </c>
+      <c r="Z8">
+        <v>2.6688447793063001E-2</v>
+      </c>
+      <c r="AA8">
         <v>0.210374639769452</v>
       </c>
-      <c r="W8">
-        <f t="shared" si="8"/>
+      <c r="AB8">
+        <f>U8*P8+AB7</f>
         <v>0.16159999999999999</v>
       </c>
-      <c r="X8">
-        <f t="shared" si="5"/>
+      <c r="AC8">
+        <f>AB8-L8</f>
         <v>0</v>
       </c>
-      <c r="Y8">
+      <c r="AD8">
         <v>0.54339623451232899</v>
       </c>
-      <c r="Z8">
-        <f t="shared" si="6"/>
+      <c r="AE8">
+        <f>AD8*P8+AE7</f>
         <v>0.17383194027201637</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0.57350000000000001</v>
       </c>
@@ -6683,11 +6841,11 @@
         <f t="shared" si="0"/>
         <v>7.3300000000000032E-2</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9">
         <f t="shared" si="1"/>
         <v>1.6306318000000007E-2</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="2">
         <f t="shared" si="7"/>
         <v>0.15088697400000001</v>
       </c>
@@ -6704,25 +6862,42 @@
         <v>0.22100954979536169</v>
       </c>
       <c r="V9">
+        <f t="shared" si="5"/>
+        <v>1.0634910025909106E-2</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="6"/>
+        <v>0.22100954979536175</v>
+      </c>
+      <c r="X9">
+        <v>-2.57651368156075E-3</v>
+      </c>
+      <c r="Y9">
+        <v>6.9762189258064905E-2</v>
+      </c>
+      <c r="Z9">
+        <v>3.1784806999017201E-2</v>
+      </c>
+      <c r="AA9">
         <v>0.221009549795361</v>
       </c>
-      <c r="W9">
-        <f t="shared" si="8"/>
+      <c r="AB9">
+        <f>U9*P9+AB8</f>
         <v>0.17780000000000001</v>
       </c>
-      <c r="X9">
-        <f t="shared" si="5"/>
+      <c r="AC9">
+        <f>AB9-L9</f>
         <v>0</v>
       </c>
-      <c r="Y9">
+      <c r="AD9">
         <v>0.572074174880981</v>
       </c>
-      <c r="Z9">
-        <f t="shared" si="6"/>
+      <c r="AE9">
+        <f>AD9*P9+AE8</f>
         <v>0.2157649772907923</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.64890000000000003</v>
       </c>
@@ -6769,11 +6944,11 @@
         <f t="shared" si="0"/>
         <v>7.5400000000000023E-2</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10">
         <f t="shared" si="1"/>
         <v>4.0714492000000012E-2</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="2">
         <f t="shared" si="7"/>
         <v>0.19160146600000003</v>
       </c>
@@ -6790,25 +6965,42 @@
         <v>0.30636604774535775</v>
       </c>
       <c r="V10">
+        <f t="shared" si="5"/>
+        <v>8.5356497949996057E-2</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="6"/>
+        <v>0.30636604774535781</v>
+      </c>
+      <c r="X10">
+        <v>-2.7880601119249998E-3</v>
+      </c>
+      <c r="Y10">
+        <v>6.6974129146139899E-2</v>
+      </c>
+      <c r="Z10">
+        <v>3.6833808826794899E-2</v>
+      </c>
+      <c r="AA10">
         <v>0.30636604774535697</v>
       </c>
-      <c r="W10">
-        <f t="shared" si="8"/>
+      <c r="AB10">
+        <f>U10*P10+AB9</f>
         <v>0.2009</v>
       </c>
-      <c r="X10">
-        <f t="shared" si="5"/>
+      <c r="AC10">
+        <f>AB10-L10</f>
         <v>0</v>
       </c>
-      <c r="Y10">
+      <c r="AD10">
         <v>0.603035628795623</v>
       </c>
-      <c r="Z10">
-        <f t="shared" si="6"/>
+      <c r="AE10">
+        <f>AD10*P10+AE9</f>
         <v>0.26123386370198232</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.70379999999999998</v>
       </c>
@@ -6855,11 +7047,11 @@
         <f t="shared" si="0"/>
         <v>5.4899999999999949E-2</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11">
         <f t="shared" si="1"/>
         <v>2.625537599999998E-2</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="2">
         <f t="shared" si="7"/>
         <v>0.21785684199999999</v>
       </c>
@@ -6876,25 +7068,42 @@
         <v>0.28415300546448119</v>
       </c>
       <c r="V11">
+        <f t="shared" si="5"/>
+        <v>-2.221304228087656E-2</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="6"/>
+        <v>0.28415300546448125</v>
+      </c>
+      <c r="X11">
+        <v>-6.5365247428417197E-3</v>
+      </c>
+      <c r="Y11">
+        <v>6.0437604403298199E-2</v>
+      </c>
+      <c r="Z11">
+        <v>4.0200144255783103E-2</v>
+      </c>
+      <c r="AA11">
         <v>0.28415300546448102</v>
       </c>
-      <c r="W11">
-        <f t="shared" si="8"/>
+      <c r="AB11">
+        <f>U11*P11+AB10</f>
         <v>0.2165</v>
       </c>
-      <c r="X11">
-        <f t="shared" si="5"/>
+      <c r="AC11">
+        <f>AB11-L11</f>
         <v>0</v>
       </c>
-      <c r="Y11">
+      <c r="AD11">
         <v>0.62957841157913197</v>
       </c>
-      <c r="Z11">
-        <f t="shared" si="6"/>
+      <c r="AE11">
+        <f>AD11*P11+AE10</f>
         <v>0.29579771849767661</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0.75329999999999997</v>
       </c>
@@ -6941,11 +7150,11 @@
         <f t="shared" si="0"/>
         <v>4.9499999999999988E-2</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12">
         <f t="shared" si="1"/>
         <v>2.2072049999999996E-2</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="2">
         <f t="shared" si="7"/>
         <v>0.239928892</v>
       </c>
@@ -6962,25 +7171,42 @@
         <v>0.33939393939393964</v>
       </c>
       <c r="V12">
+        <f t="shared" si="5"/>
+        <v>5.5240933929458447E-2</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="6"/>
+        <v>0.33939393939393969</v>
+      </c>
+      <c r="X12">
+        <v>-5.10896136984229E-3</v>
+      </c>
+      <c r="Y12">
+        <v>5.5328643033455902E-2</v>
+      </c>
+      <c r="Z12">
+        <v>4.3022133388891E-2</v>
+      </c>
+      <c r="AA12">
         <v>0.33939393939393903</v>
       </c>
-      <c r="W12">
-        <f t="shared" si="8"/>
+      <c r="AB12">
+        <f>U12*P12+AB11</f>
         <v>0.23330000000000001</v>
       </c>
-      <c r="X12">
-        <f t="shared" si="5"/>
+      <c r="AC12">
+        <f>AB12-L12</f>
         <v>0</v>
       </c>
-      <c r="Y12">
+      <c r="AD12">
         <v>0.647036552429199</v>
       </c>
-      <c r="Z12">
-        <f t="shared" si="6"/>
+      <c r="AE12">
+        <f>AD12*P12+AE11</f>
         <v>0.32782602784292197</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0.81920000000000004</v>
       </c>
@@ -7027,11 +7253,11 @@
         <f t="shared" si="0"/>
         <v>6.590000000000007E-2</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13">
         <f t="shared" si="1"/>
         <v>3.4551370000000033E-2</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="2">
         <f t="shared" si="7"/>
         <v>0.27448026200000003</v>
       </c>
@@ -7048,25 +7274,42 @@
         <v>0.37784522003034826</v>
       </c>
       <c r="V13">
+        <f t="shared" si="5"/>
+        <v>3.8451280636408625E-2</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="6"/>
+        <v>0.37784522003034832</v>
+      </c>
+      <c r="X13">
+        <v>9.6790713723748901E-4</v>
+      </c>
+      <c r="Y13">
+        <v>5.6296550170693398E-2</v>
+      </c>
+      <c r="Z13">
+        <v>4.6831205127466503E-2</v>
+      </c>
+      <c r="AA13">
         <v>0.37784522003034798</v>
       </c>
-      <c r="W13">
-        <f t="shared" si="8"/>
+      <c r="AB13">
+        <f>U13*P13+AB12</f>
         <v>0.25819999999999999</v>
       </c>
-      <c r="X13">
-        <f t="shared" si="5"/>
+      <c r="AC13">
+        <f>AB13-L13</f>
         <v>0</v>
       </c>
-      <c r="Y13">
+      <c r="AD13">
         <v>0.66813468933105402</v>
       </c>
-      <c r="Z13">
-        <f t="shared" si="6"/>
+      <c r="AE13">
+        <f>AD13*P13+AE12</f>
         <v>0.37185610386983847</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0.88109999999999999</v>
       </c>
@@ -7113,11 +7356,11 @@
         <f t="shared" si="0"/>
         <v>6.1899999999999955E-2</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14">
         <f t="shared" si="1"/>
         <v>1.0615849999999994E-2</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="2">
         <f t="shared" si="7"/>
         <v>0.28509611200000001</v>
       </c>
@@ -7134,25 +7377,42 @@
         <v>0.4684975767366728</v>
       </c>
       <c r="V14">
+        <f t="shared" si="5"/>
+        <v>9.0652356706324544E-2</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="6"/>
+        <v>0.46849757673667286</v>
+      </c>
+      <c r="X14">
+        <v>-7.5692161917686402E-3</v>
+      </c>
+      <c r="Y14">
+        <v>4.87273339789248E-2</v>
+      </c>
+      <c r="Z14">
+        <v>4.9965382050529299E-2</v>
+      </c>
+      <c r="AA14">
         <v>0.46849757673667197</v>
       </c>
-      <c r="W14">
-        <f t="shared" si="8"/>
+      <c r="AB14">
+        <f>U14*P14+AB13</f>
         <v>0.28720000000000001</v>
       </c>
-      <c r="X14">
-        <f t="shared" si="5"/>
+      <c r="AC14">
+        <f>AB14-L14</f>
         <v>0</v>
       </c>
-      <c r="Y14">
+      <c r="AD14">
         <v>0.67983502149581898</v>
       </c>
-      <c r="Z14">
-        <f t="shared" si="6"/>
+      <c r="AE14">
+        <f>AD14*P14+AE13</f>
         <v>0.41393789170042966</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0.93500000000000005</v>
       </c>
@@ -7199,11 +7459,11 @@
         <f t="shared" si="0"/>
         <v>5.3900000000000059E-2</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15">
         <f t="shared" si="1"/>
         <v>2.0547758000000024E-2</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="2">
         <f t="shared" si="7"/>
         <v>0.30564387000000004</v>
       </c>
@@ -7220,25 +7480,42 @@
         <v>0.43599257884972059</v>
       </c>
       <c r="V15">
+        <f t="shared" si="5"/>
+        <v>-3.2504997886952214E-2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="6"/>
+        <v>0.43599257884972065</v>
+      </c>
+      <c r="X15">
+        <v>-4.1806488297879696E-3</v>
+      </c>
+      <c r="Y15">
+        <v>4.4546685149136803E-2</v>
+      </c>
+      <c r="Z15">
+        <v>5.2515623406976401E-2</v>
+      </c>
+      <c r="AA15">
         <v>0.43599257884971998</v>
       </c>
-      <c r="W15">
-        <f t="shared" si="8"/>
+      <c r="AB15">
+        <f>U15*P15+AB14</f>
         <v>0.31069999999999998</v>
       </c>
-      <c r="X15">
-        <f t="shared" si="5"/>
+      <c r="AC15">
+        <f>AB15-L15</f>
         <v>0</v>
       </c>
-      <c r="Y15">
+      <c r="AD15">
         <v>0.69391638040542603</v>
       </c>
-      <c r="Z15">
-        <f t="shared" si="6"/>
+      <c r="AE15">
+        <f>AD15*P15+AE14</f>
         <v>0.45133998460428215</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>0.98640000000000005</v>
       </c>
@@ -7285,11 +7562,11 @@
         <f t="shared" si="0"/>
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16">
         <f t="shared" si="1"/>
         <v>2.4027444000000002E-2</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="2">
         <f t="shared" si="7"/>
         <v>0.32967131400000005</v>
       </c>
@@ -7306,25 +7583,42 @@
         <v>0.49610894941634281</v>
       </c>
       <c r="V16">
+        <f t="shared" si="5"/>
+        <v>6.0116370566622224E-2</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="6"/>
+        <v>0.49610894941634287</v>
+      </c>
+      <c r="X16">
+        <v>-5.9985293773934202E-4</v>
+      </c>
+      <c r="Y16">
+        <v>4.3946832211397502E-2</v>
+      </c>
+      <c r="Z16">
+        <v>5.49209590890887E-2</v>
+      </c>
+      <c r="AA16">
         <v>0.49610894941634198</v>
       </c>
-      <c r="W16">
-        <f t="shared" si="8"/>
+      <c r="AB16">
+        <f>U16*P16+AB15</f>
         <v>0.3362</v>
       </c>
-      <c r="X16">
-        <f t="shared" si="5"/>
+      <c r="AC16">
+        <f>AB16-L16</f>
         <v>0</v>
       </c>
-      <c r="Y16">
+      <c r="AD16">
         <v>0.70572394132614102</v>
       </c>
-      <c r="Z16">
-        <f t="shared" si="6"/>
+      <c r="AE16">
+        <f>AD16*P16+AE15</f>
         <v>0.48761419518844579</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1.0387999999999999</v>
       </c>
@@ -7371,11 +7665,11 @@
         <f t="shared" si="0"/>
         <v>5.2399999999999891E-2</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17">
         <f t="shared" si="1"/>
         <v>4.3032975999999917E-2</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="2">
         <f t="shared" si="7"/>
         <v>0.37270428999999994</v>
       </c>
@@ -7392,25 +7686,42 @@
         <v>0.5610687022900771</v>
       </c>
       <c r="V17">
+        <f t="shared" si="5"/>
+        <v>6.4959752873734289E-2</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="6"/>
+        <v>0.5610687022900771</v>
+      </c>
+      <c r="X17">
+        <v>-6.6274998243898099E-4</v>
+      </c>
+      <c r="Y17">
+        <v>4.3284082228958499E-2</v>
+      </c>
+      <c r="Z17">
+        <v>5.7328518031123599E-2</v>
+      </c>
+      <c r="AA17">
         <v>0.56106870229007699</v>
       </c>
-      <c r="W17">
-        <f t="shared" si="8"/>
+      <c r="AB17">
+        <f>U17*P17+AB16</f>
         <v>0.36559999999999998</v>
       </c>
-      <c r="X17">
-        <f t="shared" si="5"/>
+      <c r="AC17">
+        <f>AB17-L17</f>
         <v>0</v>
       </c>
-      <c r="Y17">
+      <c r="AD17">
         <v>0.70978653430938698</v>
       </c>
-      <c r="Z17">
-        <f t="shared" si="6"/>
+      <c r="AE17">
+        <f>AD17*P17+AE16</f>
         <v>0.52480700958625759</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1.0916999999999999</v>
       </c>
@@ -7457,11 +7768,11 @@
         <f t="shared" si="0"/>
         <v>5.2899999999999947E-2</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18">
         <f t="shared" si="1"/>
         <v>3.2038355999999969E-2</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="2">
         <f t="shared" si="7"/>
         <v>0.40474264599999993</v>
       </c>
@@ -7478,25 +7789,42 @@
         <v>0.62570888468809172</v>
       </c>
       <c r="V18">
+        <f t="shared" si="5"/>
+        <v>6.4640182398014612E-2</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="6"/>
+        <v>0.62570888468809172</v>
+      </c>
+      <c r="X18">
+        <v>2.5818496942520098E-3</v>
+      </c>
+      <c r="Y18">
+        <v>4.58659319232105E-2</v>
+      </c>
+      <c r="Z18">
+        <v>5.9865969868403403E-2</v>
+      </c>
+      <c r="AA18">
         <v>0.62570888468809105</v>
       </c>
-      <c r="W18">
-        <f t="shared" si="8"/>
+      <c r="AB18">
+        <f>U18*P18+AB17</f>
         <v>0.3987</v>
       </c>
-      <c r="X18">
-        <f t="shared" si="5"/>
+      <c r="AC18">
+        <f>AB18-L18</f>
         <v>0</v>
       </c>
-      <c r="Y18">
+      <c r="AD18">
         <v>0.70702725648880005</v>
       </c>
-      <c r="Z18">
-        <f t="shared" si="6"/>
+      <c r="AE18">
+        <f>AD18*P18+AE17</f>
         <v>0.5622087514545151</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1.1432</v>
       </c>
@@ -7543,11 +7871,11 @@
         <f t="shared" si="0"/>
         <v>5.1500000000000101E-2</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19">
         <f t="shared" si="1"/>
         <v>3.0231530000000065E-2</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="2">
         <f t="shared" si="7"/>
         <v>0.43497417599999999</v>
       </c>
@@ -7564,25 +7892,42 @@
         <v>0.76310679611650334</v>
       </c>
       <c r="V19">
+        <f t="shared" si="5"/>
+        <v>0.13739791142841162</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="6"/>
+        <v>0.76310679611650334</v>
+      </c>
+      <c r="X19">
+        <v>-5.9947422705590699E-3</v>
+      </c>
+      <c r="Y19">
+        <v>3.98711896526514E-2</v>
+      </c>
+      <c r="Z19">
+        <v>6.20180192510809E-2</v>
+      </c>
+      <c r="AA19">
         <v>0.76310679611650201</v>
       </c>
-      <c r="W19">
-        <f t="shared" si="8"/>
+      <c r="AB19">
+        <f>U19*P19+AB18</f>
         <v>0.438</v>
       </c>
-      <c r="X19">
-        <f t="shared" si="5"/>
+      <c r="AC19">
+        <f>AB19-L19</f>
         <v>0</v>
       </c>
-      <c r="Y19">
+      <c r="AD19">
         <v>0.70935940742492598</v>
       </c>
-      <c r="Z19">
-        <f t="shared" si="6"/>
+      <c r="AE19">
+        <f>AD19*P19+AE18</f>
         <v>0.59874076093689887</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1.1951000000000001</v>
       </c>
@@ -7629,11 +7974,11 @@
         <f t="shared" si="0"/>
         <v>5.1900000000000057E-2</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20">
         <f t="shared" si="1"/>
         <v>2.7974100000000033E-2</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="2">
         <f t="shared" si="7"/>
         <v>0.46294827600000005</v>
       </c>
@@ -7650,25 +7995,42 @@
         <v>1.1425818882466272</v>
       </c>
       <c r="V20">
+        <f t="shared" si="5"/>
+        <v>0.37947509213012387</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="6"/>
+        <v>1.1425818882466272</v>
+      </c>
+      <c r="X20">
+        <v>-4.8994942335411895E-4</v>
+      </c>
+      <c r="Y20">
+        <v>3.9381240229297301E-2</v>
+      </c>
+      <c r="Z20">
+        <v>6.4125320047853596E-2</v>
+      </c>
+      <c r="AA20">
         <v>1.1425818882466201</v>
       </c>
-      <c r="W20">
-        <f t="shared" si="8"/>
+      <c r="AB20">
+        <f>U20*P20+AB19</f>
         <v>0.49730000000000002</v>
       </c>
-      <c r="X20">
-        <f t="shared" si="5"/>
+      <c r="AC20">
+        <f>AB20-L20</f>
         <v>0</v>
       </c>
-      <c r="Y20">
+      <c r="AD20">
         <v>0.72091352939605702</v>
       </c>
-      <c r="Z20">
-        <f t="shared" si="6"/>
+      <c r="AE20">
+        <f>AD20*P20+AE19</f>
         <v>0.63615617311255424</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1.2455000000000001</v>
       </c>
@@ -7715,11 +8077,11 @@
         <f t="shared" si="0"/>
         <v>5.04E-2</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21">
         <f t="shared" si="1"/>
         <v>3.4870752000000005E-2</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="2">
         <f t="shared" si="7"/>
         <v>0.49781902800000005</v>
       </c>
@@ -7736,25 +8098,42 @@
         <v>1.0575396825396817</v>
       </c>
       <c r="V21">
+        <f t="shared" si="5"/>
+        <v>-8.5042205706945539E-2</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="6"/>
+        <v>1.0575396825396817</v>
+      </c>
+      <c r="X21">
+        <v>-6.9782496429979801E-3</v>
+      </c>
+      <c r="Y21">
+        <v>3.24029905862993E-2</v>
+      </c>
+      <c r="Z21">
+        <v>6.5799326884058998E-2</v>
+      </c>
+      <c r="AA21">
         <v>1.0575396825396799</v>
       </c>
-      <c r="W21">
-        <f t="shared" si="8"/>
+      <c r="AB21">
+        <f>U21*P21+AB20</f>
         <v>0.55059999999999998</v>
       </c>
-      <c r="X21">
-        <f t="shared" si="5"/>
+      <c r="AC21">
+        <f>AB21-L21</f>
         <v>0</v>
       </c>
-      <c r="Y21">
+      <c r="AD21">
         <v>0.72092157602310103</v>
       </c>
-      <c r="Z21">
-        <f t="shared" si="6"/>
+      <c r="AE21">
+        <f>AD21*P21+AE20</f>
         <v>0.67249062054411857</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1.3033999999999999</v>
       </c>
@@ -7801,11 +8180,11 @@
         <f t="shared" si="0"/>
         <v>5.789999999999984E-2</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22">
         <f t="shared" si="1"/>
         <v>6.3948233999999826E-2</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="2">
         <f t="shared" si="7"/>
         <v>0.56176726199999982</v>
       </c>
@@ -7822,25 +8201,42 @@
         <v>0.87046632124352574</v>
       </c>
       <c r="V22">
+        <f t="shared" si="5"/>
+        <v>-0.18707336129615593</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="6"/>
+        <v>0.87046632124352574</v>
+      </c>
+      <c r="X22">
+        <v>-6.62192702293396E-4</v>
+      </c>
+      <c r="Y22">
+        <v>3.1740797884005897E-2</v>
+      </c>
+      <c r="Z22">
+        <v>6.7667105681726999E-2</v>
+      </c>
+      <c r="AA22">
         <v>0.87046632124352497</v>
       </c>
-      <c r="W22">
-        <f t="shared" si="8"/>
+      <c r="AB22">
+        <f>U22*P22+AB21</f>
         <v>0.60099999999999998</v>
       </c>
-      <c r="X22">
-        <f t="shared" si="5"/>
+      <c r="AC22">
+        <f>AB22-L22</f>
         <v>0</v>
       </c>
-      <c r="Y22">
+      <c r="AD22">
         <v>0.71839386224746704</v>
       </c>
-      <c r="Z22">
-        <f t="shared" si="6"/>
+      <c r="AE22">
+        <f>AD22*P22+AE21</f>
         <v>0.71408562516824681</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1.3557999999999999</v>
       </c>
@@ -7887,11 +8283,11 @@
         <f t="shared" si="0"/>
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23">
         <f t="shared" si="1"/>
         <v>7.7079352000000018E-2</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="2">
         <f t="shared" si="7"/>
         <v>0.63884661399999987</v>
       </c>
@@ -7908,25 +8304,42 @@
         <v>0.85305343511450515</v>
       </c>
       <c r="V23">
+        <f t="shared" si="5"/>
+        <v>-1.7412886129020588E-2</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="6"/>
+        <v>0.85305343511450515</v>
+      </c>
+      <c r="X23">
+        <v>-5.4235695861279904E-3</v>
+      </c>
+      <c r="Y23">
+        <v>2.6317228297877901E-2</v>
+      </c>
+      <c r="Z23">
+        <v>6.9091130816786403E-2</v>
+      </c>
+      <c r="AA23">
         <v>0.85305343511450504</v>
       </c>
-      <c r="W23">
-        <f t="shared" si="8"/>
+      <c r="AB23">
+        <f>U23*P23+AB22</f>
         <v>0.64570000000000005</v>
       </c>
-      <c r="X23">
-        <f t="shared" si="5"/>
+      <c r="AC23">
+        <f>AB23-L23</f>
         <v>0</v>
       </c>
-      <c r="Y23">
+      <c r="AD23">
         <v>0.70966571569442705</v>
       </c>
-      <c r="Z23">
-        <f t="shared" si="6"/>
+      <c r="AE23">
+        <f>AD23*P23+AE22</f>
         <v>0.75127210867063476</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1.4052</v>
       </c>
@@ -7973,11 +8386,11 @@
         <f t="shared" si="0"/>
         <v>4.940000000000011E-2</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24">
         <f t="shared" si="1"/>
         <v>6.2693540000000145E-2</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="2">
         <f t="shared" si="7"/>
         <v>0.70154015400000003</v>
       </c>
@@ -7994,25 +8407,42 @@
         <v>0.87044534412955121</v>
       </c>
       <c r="V24">
+        <f t="shared" si="5"/>
+        <v>1.7391909015046059E-2</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="6"/>
+        <v>0.87044534412955121</v>
+      </c>
+      <c r="X24">
+        <v>-3.5232715308666199E-3</v>
+      </c>
+      <c r="Y24">
+        <v>2.2793956767011299E-2</v>
+      </c>
+      <c r="Z24">
+        <v>7.0252035527532494E-2</v>
+      </c>
+      <c r="AA24">
         <v>0.87044534412955099</v>
       </c>
-      <c r="W24">
-        <f t="shared" si="8"/>
+      <c r="AB24">
+        <f>U24*P24+AB23</f>
         <v>0.68869999999999998</v>
       </c>
-      <c r="X24">
-        <f t="shared" si="5"/>
+      <c r="AC24">
+        <f>AB24-L24</f>
         <v>0</v>
       </c>
-      <c r="Y24">
+      <c r="AD24">
         <v>0.69368082284927302</v>
       </c>
-      <c r="Z24">
-        <f t="shared" si="6"/>
+      <c r="AE24">
+        <f>AD24*P24+AE23</f>
         <v>0.78553994131938898</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1.4611000000000001</v>
       </c>
@@ -8059,11 +8489,11 @@
         <f t="shared" si="0"/>
         <v>5.5900000000000061E-2</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25">
         <f t="shared" si="1"/>
         <v>7.3024406000000083E-2</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="2">
         <f t="shared" si="7"/>
         <v>0.77456456000000007</v>
       </c>
@@ -8080,25 +8510,42 @@
         <v>0.9660107334525937</v>
       </c>
       <c r="V25">
+        <f t="shared" si="5"/>
+        <v>9.5565389323042482E-2</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="6"/>
+        <v>0.9660107334525937</v>
+      </c>
+      <c r="X25">
+        <v>5.5224075913429195E-4</v>
+      </c>
+      <c r="Y25">
+        <v>2.3346197526145598E-2</v>
+      </c>
+      <c r="Z25">
+        <v>7.1559999039098293E-2</v>
+      </c>
+      <c r="AA25">
         <v>0.96601073345259303</v>
       </c>
-      <c r="W25">
-        <f t="shared" si="8"/>
+      <c r="AB25">
+        <f>U25*P25+AB24</f>
         <v>0.74270000000000003</v>
       </c>
-      <c r="X25">
-        <f t="shared" si="5"/>
+      <c r="AC25">
+        <f>AB25-L25</f>
         <v>0</v>
       </c>
-      <c r="Y25">
+      <c r="AD25">
         <v>0.68705183267593295</v>
       </c>
-      <c r="Z25">
-        <f t="shared" si="6"/>
+      <c r="AE25">
+        <f>AD25*P25+AE24</f>
         <v>0.82394613876597367</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1.5111000000000001</v>
       </c>
@@ -8145,11 +8592,11 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26">
         <f t="shared" si="1"/>
         <v>-3.4398000000000033E-2</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="2">
         <f t="shared" si="7"/>
         <v>0.74016656000000003</v>
       </c>
@@ -8166,25 +8613,42 @@
         <v>0.76199999999999979</v>
       </c>
       <c r="V26">
+        <f t="shared" si="5"/>
+        <v>-0.20401073345259391</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="6"/>
+        <v>0.76199999999999979</v>
+      </c>
+      <c r="X26">
+        <v>-2.9395266901701602E-3</v>
+      </c>
+      <c r="Y26">
+        <v>2.0406670835975398E-2</v>
+      </c>
+      <c r="Z26">
+        <v>7.25878112586337E-2</v>
+      </c>
+      <c r="AA26">
         <v>0.76199999999999901</v>
       </c>
-      <c r="W26">
-        <f t="shared" si="8"/>
+      <c r="AB26">
+        <f>U26*P26+AB25</f>
         <v>0.78080000000000005</v>
       </c>
-      <c r="X26">
-        <f t="shared" si="5"/>
+      <c r="AC26">
+        <f>AB26-L26</f>
         <v>0</v>
       </c>
-      <c r="Y26">
+      <c r="AD26">
         <v>0.684345662593841</v>
       </c>
-      <c r="Z26">
-        <f t="shared" si="6"/>
+      <c r="AE26">
+        <f>AD26*P26+AE25</f>
         <v>0.85816342189566575</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1.5645</v>
       </c>
@@ -8231,11 +8695,11 @@
         <f t="shared" si="0"/>
         <v>5.3399999999999892E-2</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27">
         <f t="shared" si="1"/>
         <v>-5.8716503999999885E-2</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="2">
         <f t="shared" si="7"/>
         <v>0.68145005600000019</v>
       </c>
@@ -8252,25 +8716,42 @@
         <v>0.72097378277153668</v>
       </c>
       <c r="V27">
+        <f t="shared" si="5"/>
+        <v>-4.1026217228463113E-2</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="6"/>
+        <v>0.72097378277153668</v>
+      </c>
+      <c r="X27">
+        <v>-5.6712101213633997E-3</v>
+      </c>
+      <c r="Y27">
+        <v>1.4735460714612E-2</v>
+      </c>
+      <c r="Z27">
+        <v>7.3383070099329595E-2</v>
+      </c>
+      <c r="AA27">
         <v>0.72097378277153601</v>
       </c>
-      <c r="W27">
-        <f t="shared" si="8"/>
+      <c r="AB27">
+        <f>U27*P27+AB26</f>
         <v>0.81930000000000003</v>
       </c>
-      <c r="X27">
-        <f t="shared" si="5"/>
+      <c r="AC27">
+        <f>AB27-L27</f>
         <v>0</v>
       </c>
-      <c r="Y27">
+      <c r="AD27">
         <v>0.71271908283233598</v>
       </c>
-      <c r="Z27">
-        <f t="shared" si="6"/>
+      <c r="AE27">
+        <f>AD27*P27+AE26</f>
         <v>0.89622262091891236</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1.6194</v>
       </c>
@@ -8317,11 +8798,11 @@
         <f t="shared" si="0"/>
         <v>5.4899999999999949E-2</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28">
         <f t="shared" si="1"/>
         <v>-4.0889519999999964E-2</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="2">
         <f t="shared" si="7"/>
         <v>0.64056053600000018</v>
       </c>
@@ -8338,25 +8819,42 @@
         <v>0.68670309653916195</v>
       </c>
       <c r="V28">
+        <f t="shared" si="5"/>
+        <v>-3.4270686232374725E-2</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="6"/>
         <v>0.68670309653916195</v>
       </c>
-      <c r="W28">
-        <f t="shared" si="8"/>
+      <c r="X28">
+        <v>-7.4358070269227002E-3</v>
+      </c>
+      <c r="Y28">
+        <v>7.29965368768936E-3</v>
+      </c>
+      <c r="Z28">
+        <v>7.3778607273312896E-2</v>
+      </c>
+      <c r="AA28">
+        <v>0.68670309653916195</v>
+      </c>
+      <c r="AB28">
+        <f>U28*P28+AB27</f>
         <v>0.85699999999999998</v>
       </c>
-      <c r="X28">
-        <f t="shared" si="5"/>
+      <c r="AC28">
+        <f>AB28-L28</f>
         <v>0</v>
       </c>
-      <c r="Y28">
+      <c r="AD28">
         <v>0.77632886171340898</v>
       </c>
-      <c r="Z28">
-        <f t="shared" si="6"/>
+      <c r="AE28">
+        <f>AD28*P28+AE27</f>
         <v>0.93884307542697842</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1.6698</v>
       </c>
@@ -8403,11 +8901,11 @@
         <f t="shared" si="0"/>
         <v>5.04E-2</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29">
         <f t="shared" si="1"/>
         <v>-3.7537920000000002E-2</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="2">
         <f t="shared" si="7"/>
         <v>0.60302261600000018</v>
       </c>
@@ -8424,25 +8922,42 @@
         <v>0.8015873015873014</v>
       </c>
       <c r="V29">
+        <f t="shared" si="5"/>
+        <v>0.11488420504813945</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="6"/>
+        <v>0.8015873015873014</v>
+      </c>
+      <c r="X29">
+        <v>-1.8871169537305801E-2</v>
+      </c>
+      <c r="Y29">
+        <v>-1.1571515849616401E-2</v>
+      </c>
+      <c r="Z29">
+        <v>7.3188802378993306E-2</v>
+      </c>
+      <c r="AA29">
         <v>0.80158730158730096</v>
       </c>
-      <c r="W29">
-        <f t="shared" si="8"/>
+      <c r="AB29">
+        <f>U29*P29+AB28</f>
         <v>0.89739999999999998</v>
       </c>
-      <c r="X29">
-        <f t="shared" si="5"/>
+      <c r="AC29">
+        <f>AB29-L29</f>
         <v>0</v>
       </c>
-      <c r="Y29">
+      <c r="AD29">
         <v>0.80504941940307595</v>
       </c>
-      <c r="Z29">
-        <f t="shared" si="6"/>
+      <c r="AE29">
+        <f>AD29*P29+AE28</f>
         <v>0.97941756616489339</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1.7242</v>
       </c>
@@ -8489,11 +9004,11 @@
         <f t="shared" si="0"/>
         <v>5.4400000000000004E-2</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30">
         <f t="shared" si="1"/>
         <v>-7.6715968000000009E-2</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="2">
         <f t="shared" si="7"/>
         <v>0.52630664800000015</v>
       </c>
@@ -8510,25 +9025,42 @@
         <v>0.83088235294117674</v>
       </c>
       <c r="V30">
+        <f t="shared" si="5"/>
+        <v>2.9295051353875334E-2</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="6"/>
+        <v>0.83088235294117674</v>
+      </c>
+      <c r="X30">
+        <v>-1.26815438270568E-2</v>
+      </c>
+      <c r="Y30">
+        <v>-2.4253059676673301E-2</v>
+      </c>
+      <c r="Z30">
+        <v>7.1869124971484094E-2</v>
+      </c>
+      <c r="AA30">
         <v>0.83088235294117596</v>
       </c>
-      <c r="W30">
-        <f t="shared" si="8"/>
+      <c r="AB30">
+        <f>U30*P30+AB29</f>
         <v>0.94259999999999999</v>
       </c>
-      <c r="X30">
-        <f t="shared" si="5"/>
+      <c r="AC30">
+        <f>AB30-L30</f>
         <v>0</v>
       </c>
-      <c r="Y30">
+      <c r="AD30">
         <v>0.819236099720001</v>
       </c>
-      <c r="Z30">
-        <f t="shared" si="6"/>
+      <c r="AE30">
+        <f>AD30*P30+AE29</f>
         <v>1.0239840099896615</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1.7791999999999999</v>
       </c>
@@ -8575,11 +9107,11 @@
         <f t="shared" si="0"/>
         <v>5.4999999999999938E-2</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31">
         <f t="shared" si="1"/>
         <v>-6.2146699999999937E-2</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="2">
         <f t="shared" si="7"/>
         <v>0.46415994800000021</v>
       </c>
@@ -8596,25 +9128,42 @@
         <v>1.2527272727272754</v>
       </c>
       <c r="V31">
+        <f t="shared" si="5"/>
+        <v>0.42184491978609862</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="6"/>
+        <v>1.2527272727272754</v>
+      </c>
+      <c r="X31">
+        <v>-6.3116862438619102E-3</v>
+      </c>
+      <c r="Y31">
+        <v>-3.0564745920535201E-2</v>
+      </c>
+      <c r="Z31">
+        <v>7.0204518847921296E-2</v>
+      </c>
+      <c r="AA31">
         <v>1.25272727272727</v>
       </c>
-      <c r="W31">
-        <f t="shared" si="8"/>
+      <c r="AB31">
+        <f>U31*P31+AB30</f>
         <v>1.0115000000000001</v>
       </c>
-      <c r="X31">
-        <f t="shared" si="5"/>
+      <c r="AC31">
+        <f>AB31-L31</f>
         <v>0</v>
       </c>
-      <c r="Y31">
+      <c r="AD31">
         <v>0.851504266262054</v>
       </c>
-      <c r="Z31">
-        <f t="shared" si="6"/>
+      <c r="AE31">
+        <f>AD31*P31+AE30</f>
         <v>1.0708167446340744</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1.8326</v>
       </c>
@@ -8661,11 +9210,11 @@
         <f t="shared" si="0"/>
         <v>5.3400000000000114E-2</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32">
         <f t="shared" si="1"/>
         <v>-1.4966952000000033E-2</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="2">
         <f t="shared" si="7"/>
         <v>0.44919299600000018</v>
       </c>
@@ -8682,25 +9231,42 @@
         <v>1.2303370786516803</v>
       </c>
       <c r="V32">
+        <f t="shared" si="5"/>
+        <v>-2.239019407559506E-2</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="6"/>
+        <v>1.2303370786516803</v>
+      </c>
+      <c r="X32">
+        <v>-1.0260977782309E-2</v>
+      </c>
+      <c r="Y32">
+        <v>-4.0825723702844298E-2</v>
+      </c>
+      <c r="Z32">
+        <v>6.8095209085032304E-2</v>
+      </c>
+      <c r="AA32">
         <v>1.2303370786516801</v>
       </c>
-      <c r="W32">
-        <f t="shared" si="8"/>
+      <c r="AB32">
+        <f>U32*P32+AB31</f>
         <v>1.0771999999999999</v>
       </c>
-      <c r="X32">
-        <f t="shared" si="5"/>
+      <c r="AC32">
+        <f>AB32-L32</f>
         <v>0</v>
       </c>
-      <c r="Y32">
+      <c r="AD32">
         <v>0.87711226940154996</v>
       </c>
-      <c r="Z32">
-        <f t="shared" si="6"/>
+      <c r="AE32">
+        <f>AD32*P32+AE31</f>
         <v>1.1176545398201172</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1.8855</v>
       </c>
@@ -8747,11 +9313,11 @@
         <f t="shared" si="0"/>
         <v>5.2899999999999947E-2</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33">
         <f t="shared" si="1"/>
         <v>-5.0286739999999951E-3</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="2">
         <f t="shared" si="7"/>
         <v>0.44416432200000017</v>
       </c>
@@ -8768,25 +9334,42 @@
         <v>1.1852551984877135</v>
       </c>
       <c r="V33">
+        <f t="shared" si="5"/>
+        <v>-4.5081880163966748E-2</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="6"/>
+        <v>1.1852551984877135</v>
+      </c>
+      <c r="X33">
+        <v>-7.5052208267152301E-3</v>
+      </c>
+      <c r="Y33">
+        <v>-4.8330944529559501E-2</v>
+      </c>
+      <c r="Z33">
+        <v>6.5634017848511E-2</v>
+      </c>
+      <c r="AA33">
         <v>1.18525519848771</v>
       </c>
-      <c r="W33">
-        <f t="shared" si="8"/>
+      <c r="AB33">
+        <f>U33*P33+AB32</f>
         <v>1.1398999999999999</v>
       </c>
-      <c r="X33">
-        <f t="shared" si="5"/>
+      <c r="AC33">
+        <f>AB33-L33</f>
         <v>0</v>
       </c>
-      <c r="Y33">
+      <c r="AD33">
         <v>0.86583435535430897</v>
       </c>
-      <c r="Z33">
-        <f t="shared" si="6"/>
+      <c r="AE33">
+        <f>AD33*P33+AE32</f>
         <v>1.1634571772183602</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1.9549000000000001</v>
       </c>
@@ -8833,11 +9416,11 @@
         <f t="shared" si="0"/>
         <v>6.9400000000000128E-2</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34">
         <f t="shared" si="1"/>
         <v>6.2571040000000119E-2</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="2">
         <f t="shared" si="7"/>
         <v>0.50673536200000024</v>
       </c>
@@ -8854,25 +9437,42 @@
         <v>1.1253602305475492</v>
       </c>
       <c r="V34">
+        <f t="shared" si="5"/>
+        <v>-5.9894967940164356E-2</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="6"/>
+        <v>1.1253602305475492</v>
+      </c>
+      <c r="X34">
+        <v>3.1940683256834702E-3</v>
+      </c>
+      <c r="Y34">
+        <v>-4.5136876203875999E-2</v>
+      </c>
+      <c r="Z34">
+        <v>6.2624696453250903E-2</v>
+      </c>
+      <c r="AA34">
         <v>1.1253602305475401</v>
       </c>
-      <c r="W34">
-        <f t="shared" si="8"/>
+      <c r="AB34">
+        <f>U34*P34+AB33</f>
         <v>1.218</v>
       </c>
-      <c r="X34">
-        <f t="shared" si="5"/>
+      <c r="AC34">
+        <f>AB34-L34</f>
         <v>0</v>
       </c>
-      <c r="Y34">
+      <c r="AD34">
         <v>0.84548485279083196</v>
       </c>
-      <c r="Z34">
-        <f t="shared" si="6"/>
+      <c r="AE34">
+        <f>AD34*P34+AE33</f>
         <v>1.222133826002044</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>2.0047999999999999</v>
       </c>
@@ -8919,16 +9519,16 @@
         <f t="shared" si="0"/>
         <v>4.9899999999999833E-2</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35">
         <f t="shared" si="1"/>
         <v>7.6580531999999743E-2</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="2">
         <f t="shared" si="7"/>
         <v>0.58331589399999995</v>
       </c>
       <c r="S35">
-        <f t="shared" ref="S35:S66" si="9">S34+R35*P35</f>
+        <f t="shared" ref="S35:S66" si="8">S34+R35*P35</f>
         <v>0.71234850589000009</v>
       </c>
       <c r="T35">
@@ -8940,25 +9540,42 @@
         <v>1.098196392785574</v>
       </c>
       <c r="V35">
+        <f t="shared" si="5"/>
+        <v>-2.7163837761975174E-2</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="6"/>
+        <v>1.098196392785574</v>
+      </c>
+      <c r="X35">
+        <v>3.5234852693974898E-3</v>
+      </c>
+      <c r="Y35">
+        <v>-4.1613390934478502E-2</v>
+      </c>
+      <c r="Z35">
+        <v>6.0616400438287699E-2</v>
+      </c>
+      <c r="AA35">
         <v>1.09819639278557</v>
       </c>
-      <c r="W35">
-        <f t="shared" si="8"/>
+      <c r="AB35">
+        <f>U35*P35+AB34</f>
         <v>1.2727999999999999</v>
       </c>
-      <c r="X35">
-        <f t="shared" si="5"/>
+      <c r="AC35">
+        <f>AB35-L35</f>
         <v>0</v>
       </c>
-      <c r="Y35">
+      <c r="AD35">
         <v>0.82130819559097201</v>
       </c>
-      <c r="Z35">
-        <f t="shared" si="6"/>
+      <c r="AE35">
+        <f>AD35*P35+AE34</f>
         <v>1.2631171049620333</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>2.0587</v>
       </c>
@@ -9005,16 +9622,16 @@
         <f t="shared" si="0"/>
         <v>5.3900000000000059E-2</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36">
         <f t="shared" si="1"/>
         <v>8.2824896000000092E-2</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="2">
         <f t="shared" si="7"/>
         <v>0.66614079000000004</v>
       </c>
       <c r="S36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.74825349447100009</v>
       </c>
       <c r="T36">
@@ -9026,25 +9643,42 @@
         <v>0.96846011131725351</v>
       </c>
       <c r="V36">
+        <f t="shared" si="5"/>
+        <v>-0.1297362814683205</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="6"/>
+        <v>0.96846011131725351</v>
+      </c>
+      <c r="X36">
+        <v>-7.2169600753113595E-4</v>
+      </c>
+      <c r="Y36">
+        <v>-4.23350869420097E-2</v>
+      </c>
+      <c r="Z36">
+        <v>5.8406607475855299E-2</v>
+      </c>
+      <c r="AA36">
         <v>0.96846011131725296</v>
       </c>
-      <c r="W36">
-        <f t="shared" si="8"/>
+      <c r="AB36">
+        <f>U36*P36+AB35</f>
         <v>1.325</v>
       </c>
-      <c r="X36">
-        <f t="shared" si="5"/>
+      <c r="AC36">
+        <f>AB36-L36</f>
         <v>0</v>
       </c>
-      <c r="Y36">
+      <c r="AD36">
         <v>0.78128761053085305</v>
       </c>
-      <c r="Z36">
-        <f t="shared" si="6"/>
+      <c r="AE36">
+        <f>AD36*P36+AE35</f>
         <v>1.3052285071696463</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>2.1141000000000001</v>
       </c>
@@ -9091,16 +9725,16 @@
         <f t="shared" si="0"/>
         <v>5.5400000000000116E-2</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q37">
         <f t="shared" si="1"/>
         <v>6.8082168000000151E-2</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="2">
         <f t="shared" si="7"/>
         <v>0.73422295800000015</v>
       </c>
       <c r="S37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.78892944634420015</v>
       </c>
       <c r="T37">
@@ -9112,25 +9746,42 @@
         <v>1.223826714801443</v>
       </c>
       <c r="V37">
+        <f t="shared" si="5"/>
+        <v>0.25536660348418949</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="6"/>
+        <v>1.223826714801443</v>
+      </c>
+      <c r="X37">
+        <v>7.8491885215044004E-3</v>
+      </c>
+      <c r="Y37">
+        <v>-3.4485898420505298E-2</v>
+      </c>
+      <c r="Z37">
+        <v>5.6574623628661898E-2</v>
+      </c>
+      <c r="AA37">
         <v>1.2238267148014399</v>
       </c>
-      <c r="W37">
-        <f t="shared" si="8"/>
+      <c r="AB37">
+        <f>U37*P37+AB36</f>
         <v>1.3928</v>
       </c>
-      <c r="X37">
-        <f t="shared" si="5"/>
+      <c r="AC37">
+        <f>AB37-L37</f>
         <v>0</v>
       </c>
-      <c r="Y37">
+      <c r="AD37">
         <v>0.75743359327316195</v>
       </c>
-      <c r="Z37">
-        <f t="shared" si="6"/>
+      <c r="AE37">
+        <f>AD37*P37+AE36</f>
         <v>1.3471903282369797</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>2.1655000000000002</v>
       </c>
@@ -9177,16 +9828,16 @@
         <f t="shared" si="0"/>
         <v>5.1400000000000112E-2</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38">
         <f t="shared" si="1"/>
         <v>1.8738384000000042E-2</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="2">
         <f t="shared" si="7"/>
         <v>0.7529613420000002</v>
       </c>
       <c r="S38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.8276316593230002</v>
       </c>
       <c r="T38">
@@ -9198,25 +9849,42 @@
         <v>1.0252918287937716</v>
       </c>
       <c r="V38">
+        <f t="shared" si="5"/>
+        <v>-0.19853488600767144</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="6"/>
+        <v>1.0252918287937716</v>
+      </c>
+      <c r="X38">
+        <v>-1.30411458667367E-3</v>
+      </c>
+      <c r="Y38">
+        <v>-3.5790013007178899E-2</v>
+      </c>
+      <c r="Z38">
+        <v>5.4856750898194098E-2</v>
+      </c>
+      <c r="AA38">
         <v>1.02529182879377</v>
       </c>
-      <c r="W38">
-        <f t="shared" si="8"/>
+      <c r="AB38">
+        <f>U38*P38+AB37</f>
         <v>1.4455</v>
       </c>
-      <c r="X38">
-        <f t="shared" si="5"/>
+      <c r="AC38">
+        <f>AB38-L38</f>
         <v>0</v>
       </c>
-      <c r="Y38">
+      <c r="AD38">
         <v>0.74325942993163996</v>
       </c>
-      <c r="Z38">
-        <f t="shared" si="6"/>
+      <c r="AE38">
+        <f>AD38*P38+AE37</f>
         <v>1.3853938629354661</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>2.2174999999999998</v>
       </c>
@@ -9263,16 +9931,16 @@
         <f t="shared" si="0"/>
         <v>5.1999999999999602E-2</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q39">
         <f t="shared" si="1"/>
         <v>-5.8909759999999554E-2</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="2">
         <f t="shared" si="7"/>
         <v>0.69405158200000061</v>
       </c>
       <c r="S39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.86372234158700001</v>
       </c>
       <c r="T39">
@@ -9284,25 +9952,42 @@
         <v>0.96346153846154647</v>
       </c>
       <c r="V39">
+        <f t="shared" si="5"/>
+        <v>-6.1830290332225091E-2</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="6"/>
+        <v>0.96346153846154647</v>
+      </c>
+      <c r="X39">
+        <v>-5.7093566283583598E-3</v>
+      </c>
+      <c r="Y39">
+        <v>-4.1499369635537298E-2</v>
+      </c>
+      <c r="Z39">
+        <v>5.2882955760332299E-2</v>
+      </c>
+      <c r="AA39">
         <v>0.96346153846154603</v>
       </c>
-      <c r="W39">
-        <f t="shared" si="8"/>
+      <c r="AB39">
+        <f>U39*P39+AB38</f>
         <v>1.4956</v>
       </c>
-      <c r="X39">
-        <f t="shared" si="5"/>
+      <c r="AC39">
+        <f>AB39-L39</f>
         <v>0</v>
       </c>
-      <c r="Y39">
+      <c r="AD39">
         <v>0.753959000110626</v>
       </c>
-      <c r="Z39">
-        <f t="shared" si="6"/>
+      <c r="AE39">
+        <f>AD39*P39+AE38</f>
         <v>1.4245997309412184</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>2.2844000000000002</v>
       </c>
@@ -9349,16 +10034,16 @@
         <f t="shared" si="0"/>
         <v>6.6900000000000404E-2</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q40">
         <f t="shared" si="1"/>
         <v>-8.1165756000000491E-2</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="2">
         <f t="shared" si="7"/>
         <v>0.61288582600000008</v>
       </c>
       <c r="S40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.90472440334640025</v>
       </c>
       <c r="T40">
@@ -9370,25 +10055,42 @@
         <v>1.0134529147981981</v>
       </c>
       <c r="V40">
+        <f t="shared" si="5"/>
+        <v>4.9991376336651627E-2</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="6"/>
+        <v>1.0134529147981981</v>
+      </c>
+      <c r="X40">
+        <v>-1.15931937471032E-2</v>
+      </c>
+      <c r="Y40">
+        <v>-5.3092563382640498E-2</v>
+      </c>
+      <c r="Z40">
+        <v>4.9616532454772301E-2</v>
+      </c>
+      <c r="AA40">
         <v>1.0134529147981901</v>
       </c>
-      <c r="W40">
-        <f t="shared" si="8"/>
+      <c r="AB40">
+        <f>U40*P40+AB39</f>
         <v>1.5633999999999999</v>
       </c>
-      <c r="X40">
-        <f t="shared" si="5"/>
+      <c r="AC40">
+        <f>AB40-L40</f>
         <v>0</v>
       </c>
-      <c r="Y40">
+      <c r="AD40">
         <v>0.79387968778610196</v>
       </c>
-      <c r="Z40">
-        <f t="shared" si="6"/>
+      <c r="AE40">
+        <f>AD40*P40+AE39</f>
         <v>1.477710282054109</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>2.3403</v>
       </c>
@@ -9435,16 +10137,16 @@
         <f t="shared" si="0"/>
         <v>5.5899999999999839E-2</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41">
         <f t="shared" si="1"/>
         <v>-9.1376375999999745E-2</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="2">
         <f t="shared" si="7"/>
         <v>0.52150945000000037</v>
       </c>
       <c r="S41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.9338767816014002</v>
       </c>
       <c r="T41">
@@ -9456,25 +10158,42 @@
         <v>0.99105545617174018</v>
       </c>
       <c r="V41">
+        <f t="shared" si="5"/>
+        <v>-2.2397458626457922E-2</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="6"/>
+        <v>0.99105545617174018</v>
+      </c>
+      <c r="X41">
+        <v>-1.8034279346465999E-2</v>
+      </c>
+      <c r="Y41">
+        <v>-7.1126842729106604E-2</v>
+      </c>
+      <c r="Z41">
+        <v>4.5883122598994797E-2</v>
+      </c>
+      <c r="AA41">
         <v>0.99105545617173996</v>
       </c>
-      <c r="W41">
-        <f t="shared" si="8"/>
+      <c r="AB41">
+        <f>U41*P41+AB40</f>
         <v>1.6188</v>
       </c>
-      <c r="X41">
-        <f t="shared" si="5"/>
+      <c r="AC41">
+        <f>AB41-L41</f>
         <v>0</v>
       </c>
-      <c r="Y41">
+      <c r="AD41">
         <v>0.83550071716308505</v>
       </c>
-      <c r="Z41">
-        <f t="shared" si="6"/>
+      <c r="AE41">
+        <f>AD41*P41+AE40</f>
         <v>1.5244147721435253</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>2.3927</v>
       </c>
@@ -9521,16 +10240,16 @@
         <f t="shared" si="0"/>
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="Q42">
         <f t="shared" si="1"/>
         <v>-6.9684664000000007E-2</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="2">
         <f t="shared" si="7"/>
         <v>0.45182478600000037</v>
       </c>
       <c r="S42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.95755240038780021</v>
       </c>
       <c r="T42">
@@ -9542,25 +10261,42 @@
         <v>1.5305343511450391</v>
       </c>
       <c r="V42">
+        <f t="shared" si="5"/>
+        <v>0.53947889497329893</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="6"/>
+        <v>1.5305343511450391</v>
+      </c>
+      <c r="X42">
+        <v>-1.4812789857387499E-2</v>
+      </c>
+      <c r="Y42">
+        <v>-8.5939632586494105E-2</v>
+      </c>
+      <c r="Z42">
+        <v>4.1626721424703202E-2</v>
+      </c>
+      <c r="AA42">
         <v>1.53053435114503</v>
       </c>
-      <c r="W42">
-        <f t="shared" si="8"/>
+      <c r="AB42">
+        <f>U42*P42+AB41</f>
         <v>1.6990000000000001</v>
       </c>
-      <c r="X42">
-        <f t="shared" si="5"/>
+      <c r="AC42">
+        <f>AB42-L42</f>
         <v>0</v>
       </c>
-      <c r="Y42">
+      <c r="AD42">
         <v>0.86091119050979603</v>
       </c>
-      <c r="Z42">
-        <f t="shared" si="6"/>
+      <c r="AE42">
+        <f>AD42*P42+AE41</f>
         <v>1.5695265185262386</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>2.4436</v>
       </c>
@@ -9607,16 +10343,16 @@
         <f t="shared" si="0"/>
         <v>5.0899999999999945E-2</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="Q43">
         <f t="shared" si="1"/>
         <v>-2.7534863999999971E-2</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="2">
         <f t="shared" si="7"/>
         <v>0.42428992200000037</v>
       </c>
       <c r="S43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.97914875741760021</v>
       </c>
       <c r="T43">
@@ -9628,25 +10364,42 @@
         <v>1.388998035363459</v>
       </c>
       <c r="V43">
+        <f t="shared" si="5"/>
+        <v>-0.1415363157815801</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="6"/>
+        <v>1.388998035363459</v>
+      </c>
+      <c r="X43">
+        <v>-8.6981710046529701E-3</v>
+      </c>
+      <c r="Y43">
+        <v>-9.4637803591147096E-2</v>
+      </c>
+      <c r="Z43">
+        <v>3.6987008078802598E-2</v>
+      </c>
+      <c r="AA43">
         <v>1.3889980353634499</v>
       </c>
-      <c r="W43">
-        <f t="shared" si="8"/>
+      <c r="AB43">
+        <f>U43*P43+AB42</f>
         <v>1.7697000000000001</v>
       </c>
-      <c r="X43">
-        <f t="shared" si="5"/>
+      <c r="AC43">
+        <f>AB43-L43</f>
         <v>0</v>
       </c>
-      <c r="Y43">
+      <c r="AD43">
         <v>0.87366420030593805</v>
       </c>
-      <c r="Z43">
-        <f t="shared" si="6"/>
+      <c r="AE43">
+        <f>AD43*P43+AE42</f>
         <v>1.6139960263218107</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>2.496</v>
       </c>
@@ -9693,16 +10446,16 @@
         <f t="shared" si="0"/>
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="Q44">
         <f t="shared" si="1"/>
         <v>-6.8298160000000007E-3</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="2">
         <f t="shared" si="7"/>
         <v>0.41746010600000039</v>
       </c>
       <c r="S44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.0010236669720003</v>
       </c>
       <c r="T44">
@@ -9714,25 +10467,42 @@
         <v>1.3454198473282444</v>
       </c>
       <c r="V44">
+        <f t="shared" si="5"/>
+        <v>-4.3578188035214627E-2</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="6"/>
+        <v>1.3454198473282444</v>
+      </c>
+      <c r="X44">
+        <v>-8.2479733973741497E-3</v>
+      </c>
+      <c r="Y44">
+        <v>-0.102885776988521</v>
+      </c>
+      <c r="Z44">
+        <v>3.1750341351263298E-2</v>
+      </c>
+      <c r="AA44">
         <v>1.3454198473282399</v>
       </c>
-      <c r="W44">
-        <f t="shared" si="8"/>
+      <c r="AB44">
+        <f>U44*P44+AB43</f>
         <v>1.8402000000000001</v>
       </c>
-      <c r="X44">
-        <f t="shared" si="5"/>
+      <c r="AC44">
+        <f>AB44-L44</f>
         <v>0</v>
       </c>
-      <c r="Y44">
+      <c r="AD44">
         <v>0.86118370294570901</v>
       </c>
-      <c r="Z44">
-        <f t="shared" si="6"/>
+      <c r="AE44">
+        <f>AD44*P44+AE43</f>
         <v>1.6591220523561658</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>2.5493999999999999</v>
       </c>
@@ -9779,16 +10549,16 @@
         <f t="shared" si="0"/>
         <v>5.3399999999999892E-2</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="Q45">
         <f t="shared" si="1"/>
         <v>1.501928399999997E-2</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="2">
         <f t="shared" si="7"/>
         <v>0.43247939000000035</v>
       </c>
       <c r="S45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.0241180663980003</v>
       </c>
       <c r="T45">
@@ -9800,25 +10570,42 @@
         <v>1.2584269662921359</v>
       </c>
       <c r="V45">
+        <f t="shared" si="5"/>
+        <v>-8.6992881036108471E-2</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="6"/>
+        <v>1.2584269662921359</v>
+      </c>
+      <c r="X45">
+        <v>4.8182355239987304E-3</v>
+      </c>
+      <c r="Y45">
+        <v>-9.8067541464522498E-2</v>
+      </c>
+      <c r="Z45">
+        <v>2.6635518540944699E-2</v>
+      </c>
+      <c r="AA45">
         <v>1.2584269662921299</v>
       </c>
-      <c r="W45">
-        <f t="shared" si="8"/>
+      <c r="AB45">
+        <f>U45*P45+AB44</f>
         <v>1.9074</v>
       </c>
-      <c r="X45">
-        <f t="shared" si="5"/>
+      <c r="AC45">
+        <f>AB45-L45</f>
         <v>0</v>
       </c>
-      <c r="Y45">
+      <c r="AD45">
         <v>0.84335362911224299</v>
       </c>
-      <c r="Z45">
-        <f t="shared" si="6"/>
+      <c r="AE45">
+        <f>AD45*P45+AE44</f>
         <v>1.7041571361507595</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>2.6013999999999999</v>
       </c>
@@ -9865,16 +10652,16 @@
         <f t="shared" si="0"/>
         <v>5.2000000000000046E-2</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="Q46">
         <f t="shared" si="1"/>
         <v>4.7647600000000047E-2</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="2">
         <f t="shared" si="7"/>
         <v>0.48012699000000042</v>
       </c>
       <c r="S46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.0490846698780003</v>
       </c>
       <c r="T46">
@@ -9886,25 +10673,42 @@
         <v>1.1153846153846154</v>
       </c>
       <c r="V46">
+        <f t="shared" si="5"/>
+        <v>-0.14304235090752049</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="6"/>
+        <v>1.1153846153846154</v>
+      </c>
+      <c r="X46">
+        <v>1.22721064835786E-2</v>
+      </c>
+      <c r="Y46">
+        <v>-8.5795434980943802E-2</v>
+      </c>
+      <c r="Z46">
+        <v>2.2221158233287502E-2</v>
+      </c>
+      <c r="AA46">
         <v>1.1153846153846101</v>
       </c>
-      <c r="W46">
-        <f t="shared" si="8"/>
+      <c r="AB46">
+        <f>U46*P46+AB45</f>
         <v>1.9654</v>
       </c>
-      <c r="X46">
-        <f t="shared" si="5"/>
+      <c r="AC46">
+        <f>AB46-L46</f>
         <v>0</v>
       </c>
-      <c r="Y46">
+      <c r="AD46">
         <v>0.82158547639846802</v>
       </c>
-      <c r="Z46">
-        <f t="shared" si="6"/>
+      <c r="AE46">
+        <f>AD46*P46+AE45</f>
         <v>1.7468795809234798</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>2.6673</v>
       </c>
@@ -9951,16 +10755,16 @@
         <f t="shared" si="0"/>
         <v>6.590000000000007E-2</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="Q47">
         <f t="shared" si="1"/>
         <v>0.10604364400000012</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="2">
         <f t="shared" si="7"/>
         <v>0.58617063400000058</v>
       </c>
       <c r="S47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.0877133146586004</v>
       </c>
       <c r="T47">
@@ -9972,25 +10776,42 @@
         <v>1.0333839150227615</v>
       </c>
       <c r="V47">
+        <f t="shared" si="5"/>
+        <v>-8.2000700361853918E-2</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="6"/>
+        <v>1.0333839150227615</v>
+      </c>
+      <c r="X47">
+        <v>8.1786634400486894E-3</v>
+      </c>
+      <c r="Y47">
+        <v>-7.7616771540895094E-2</v>
+      </c>
+      <c r="Z47">
+        <v>1.7115185380471101E-2</v>
+      </c>
+      <c r="AA47">
         <v>1.0333839150227599</v>
       </c>
-      <c r="W47">
-        <f t="shared" si="8"/>
+      <c r="AB47">
+        <f>U47*P47+AB46</f>
         <v>2.0335000000000001</v>
       </c>
-      <c r="X47">
-        <f t="shared" si="5"/>
+      <c r="AC47">
+        <f>AB47-L47</f>
         <v>0</v>
       </c>
-      <c r="Y47">
+      <c r="AD47">
         <v>0.78892451524734497</v>
       </c>
-      <c r="Z47">
-        <f t="shared" si="6"/>
+      <c r="AE47">
+        <f>AD47*P47+AE46</f>
         <v>1.7988697064782799</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>2.7187000000000001</v>
       </c>
@@ -10037,16 +10858,16 @@
         <f t="shared" si="0"/>
         <v>5.1400000000000112E-2</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="Q48">
         <f t="shared" si="1"/>
         <v>7.6414324000000172E-2</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="2">
         <f t="shared" si="7"/>
         <v>0.66258495800000072</v>
       </c>
       <c r="S48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.1217701814998005</v>
       </c>
       <c r="T48">
@@ -10058,25 +10879,42 @@
         <v>0.92801556420232978</v>
       </c>
       <c r="V48">
+        <f t="shared" si="5"/>
+        <v>-0.10536835082043172</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="6"/>
+        <v>0.92801556420232978</v>
+      </c>
+      <c r="X48">
+        <v>7.2770938277244498E-3</v>
+      </c>
+      <c r="Y48">
+        <v>-7.0339677713170706E-2</v>
+      </c>
+      <c r="Z48">
+        <v>1.3514711962996501E-2</v>
+      </c>
+      <c r="AA48">
         <v>0.928015564202329</v>
       </c>
-      <c r="W48">
-        <f t="shared" si="8"/>
+      <c r="AB48">
+        <f>U48*P48+AB47</f>
         <v>2.0811999999999999</v>
       </c>
-      <c r="X48">
-        <f t="shared" si="5"/>
+      <c r="AC48">
+        <f>AB48-L48</f>
         <v>0</v>
       </c>
-      <c r="Y48">
+      <c r="AD48">
         <v>0.74326425790786699</v>
       </c>
-      <c r="Z48">
-        <f t="shared" si="6"/>
+      <c r="AE48">
+        <f>AD48*P48+AE47</f>
         <v>1.8370734893347445</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>2.7711000000000001</v>
       </c>
@@ -10123,16 +10961,16 @@
         <f t="shared" si="0"/>
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="Q49">
         <f t="shared" si="1"/>
         <v>4.2211344000000005E-2</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="2">
         <f t="shared" si="7"/>
         <v>0.70479630200000076</v>
       </c>
       <c r="S49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.1587015077246006</v>
       </c>
       <c r="T49">
@@ -10144,25 +10982,42 @@
         <v>0.95801526717557717</v>
       </c>
       <c r="V49">
+        <f t="shared" si="5"/>
+        <v>2.9999702973247389E-2</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="6"/>
+        <v>0.95801526717557717</v>
+      </c>
+      <c r="X49">
+        <v>1.1326082050800299E-2</v>
+      </c>
+      <c r="Y49">
+        <v>-5.9013595662370397E-2</v>
+      </c>
+      <c r="Z49">
+        <v>1.0424250036852101E-2</v>
+      </c>
+      <c r="AA49">
         <v>0.95801526717557695</v>
       </c>
-      <c r="W49">
-        <f t="shared" si="8"/>
+      <c r="AB49">
+        <f>U49*P49+AB48</f>
         <v>2.1314000000000002</v>
       </c>
-      <c r="X49">
-        <f t="shared" si="5"/>
+      <c r="AC49">
+        <f>AB49-L49</f>
         <v>0</v>
       </c>
-      <c r="Y49">
+      <c r="AD49">
         <v>0.71185719966888406</v>
       </c>
-      <c r="Z49">
-        <f t="shared" si="6"/>
+      <c r="AE49">
+        <f>AD49*P49+AE48</f>
         <v>1.874374806597394</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>2.8254999999999999</v>
       </c>
@@ -10209,16 +11064,16 @@
         <f t="shared" si="0"/>
         <v>5.4399999999999782E-2</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="Q50">
         <f t="shared" si="1"/>
         <v>4.4462207999999823E-2</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="2">
         <f t="shared" si="7"/>
         <v>0.74925851000000054</v>
       </c>
       <c r="S50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.1994611706686005</v>
       </c>
       <c r="T50">
@@ -10230,25 +11085,42 @@
         <v>0.97242647058823417</v>
       </c>
       <c r="V50">
+        <f t="shared" si="5"/>
+        <v>1.4411203412657003E-2</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="6"/>
+        <v>0.97242647058823417</v>
+      </c>
+      <c r="X50">
+        <v>7.6287710107862897E-3</v>
+      </c>
+      <c r="Y50">
+        <v>-5.1384824651584102E-2</v>
+      </c>
+      <c r="Z50">
+        <v>7.60880831597979E-3</v>
+      </c>
+      <c r="AA50">
         <v>0.97242647058823395</v>
       </c>
-      <c r="W50">
-        <f t="shared" si="8"/>
+      <c r="AB50">
+        <f>U50*P50+AB49</f>
         <v>2.1842999999999999</v>
       </c>
-      <c r="X50">
-        <f t="shared" si="5"/>
+      <c r="AC50">
+        <f>AB50-L50</f>
         <v>0</v>
       </c>
-      <c r="Y50">
+      <c r="AD50">
         <v>0.72613567113876298</v>
       </c>
-      <c r="Z50">
-        <f t="shared" si="6"/>
+      <c r="AE50">
+        <f>AD50*P50+AE49</f>
         <v>1.9138765871073424</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>2.8898999999999999</v>
       </c>
@@ -10295,16 +11167,16 @@
         <f t="shared" si="0"/>
         <v>6.4400000000000013E-2</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="Q51">
         <f t="shared" si="1"/>
         <v>-7.3967264000000019E-2</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="2">
         <f t="shared" si="7"/>
         <v>0.67529124600000057</v>
       </c>
       <c r="S51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.2429499269110005</v>
       </c>
       <c r="T51">
@@ -10316,25 +11188,42 @@
         <v>1.1381987577639772</v>
       </c>
       <c r="V51">
+        <f t="shared" si="5"/>
+        <v>0.16577228717574299</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="6"/>
+        <v>1.1381987577639772</v>
+      </c>
+      <c r="X51">
+        <v>-4.84398240223526E-3</v>
+      </c>
+      <c r="Y51">
+        <v>-5.6228807053819302E-2</v>
+      </c>
+      <c r="Z51">
+        <v>3.9602506568859903E-3</v>
+      </c>
+      <c r="AA51">
         <v>1.1381987577639701</v>
       </c>
-      <c r="W51">
-        <f t="shared" si="8"/>
+      <c r="AB51">
+        <f>U51*P51+AB50</f>
         <v>2.2576000000000001</v>
       </c>
-      <c r="X51">
-        <f t="shared" si="5"/>
+      <c r="AC51">
+        <f>AB51-L51</f>
         <v>0</v>
       </c>
-      <c r="Y51">
+      <c r="AD51">
         <v>0.74187821149826005</v>
       </c>
-      <c r="Z51">
-        <f t="shared" si="6"/>
+      <c r="AE51">
+        <f>AD51*P51+AE50</f>
         <v>1.9616535439278304</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>2.9533</v>
       </c>
@@ -10381,16 +11270,16 @@
         <f t="shared" si="0"/>
         <v>6.3400000000000123E-2</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="Q52">
         <f t="shared" si="1"/>
         <v>-5.8528344000000121E-2</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="2">
         <f t="shared" si="7"/>
         <v>0.6167629020000005</v>
       </c>
       <c r="S52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.2820526948978006</v>
       </c>
       <c r="T52">
@@ -10402,25 +11291,42 @@
         <v>1.2476340694006276</v>
       </c>
       <c r="V52">
+        <f t="shared" si="5"/>
+        <v>0.10943531163665043</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="6"/>
+        <v>1.2476340694006276</v>
+      </c>
+      <c r="X52">
+        <v>-1.5767775475978799E-2</v>
+      </c>
+      <c r="Y52">
+        <v>-7.1996582529798195E-2</v>
+      </c>
+      <c r="Z52">
+        <v>-6.1649431413361797E-4</v>
+      </c>
+      <c r="AA52">
         <v>1.24763406940062</v>
       </c>
-      <c r="W52">
-        <f t="shared" si="8"/>
+      <c r="AB52">
+        <f>U52*P52+AB51</f>
         <v>2.3367</v>
       </c>
-      <c r="X52">
-        <f t="shared" si="5"/>
+      <c r="AC52">
+        <f>AB52-L52</f>
         <v>0</v>
       </c>
-      <c r="Y52">
+      <c r="AD52">
         <v>0.76601248979568404</v>
       </c>
-      <c r="Z52">
-        <f t="shared" si="6"/>
+      <c r="AE52">
+        <f>AD52*P52+AE51</f>
         <v>2.0102187357808767</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>3.0202</v>
       </c>
@@ -10467,16 +11373,16 @@
         <f t="shared" si="0"/>
         <v>6.6899999999999959E-2</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="Q53">
         <f t="shared" si="1"/>
         <v>5.1793979999999983E-3</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="2">
         <f t="shared" si="7"/>
         <v>0.6219423000000005</v>
       </c>
       <c r="S53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.3236606347678006</v>
       </c>
       <c r="T53">
@@ -10488,25 +11394,42 @@
         <v>1.3288490284006018</v>
       </c>
       <c r="V53">
+        <f t="shared" si="5"/>
+        <v>8.1214958999974218E-2</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="6"/>
+        <v>1.3288490284006018</v>
+      </c>
+      <c r="X53">
+        <v>-1.0496312752366E-2</v>
+      </c>
+      <c r="Y53">
+        <v>-8.2492895282164302E-2</v>
+      </c>
+      <c r="Z53">
+        <v>-6.1033207013209004E-3</v>
+      </c>
+      <c r="AA53">
         <v>1.3288490284006</v>
       </c>
-      <c r="W53">
-        <f t="shared" si="8"/>
+      <c r="AB53">
+        <f>U53*P53+AB52</f>
         <v>2.4256000000000002</v>
       </c>
-      <c r="X53">
-        <f t="shared" si="5"/>
+      <c r="AC53">
+        <f>AB53-L53</f>
         <v>0</v>
       </c>
-      <c r="Y53">
+      <c r="AD53">
         <v>0.81485456228256203</v>
       </c>
-      <c r="Z53">
-        <f t="shared" si="6"/>
+      <c r="AE53">
+        <f>AD53*P53+AE52</f>
         <v>2.0647325059975801</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>3.0846</v>
       </c>
@@ -10553,16 +11476,16 @@
         <f t="shared" si="0"/>
         <v>6.4400000000000013E-2</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="Q54">
         <f t="shared" si="1"/>
         <v>2.360388800000001E-2</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="2">
         <f t="shared" si="7"/>
         <v>0.64554618800000052</v>
       </c>
       <c r="S54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.3652338092750007</v>
       </c>
       <c r="T54">
@@ -10574,25 +11497,42 @@
         <v>1.3804347826086916</v>
       </c>
       <c r="V54">
+        <f t="shared" si="5"/>
+        <v>5.1585754208089751E-2</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="6"/>
+        <v>1.3804347826086916</v>
+      </c>
+      <c r="X54">
+        <v>-9.9993338808417303E-3</v>
+      </c>
+      <c r="Y54">
+        <v>-9.2492229163006007E-2</v>
+      </c>
+      <c r="Z54">
+        <v>-1.19775585215784E-2</v>
+      </c>
+      <c r="AA54">
         <v>1.38043478260869</v>
       </c>
-      <c r="W54">
-        <f t="shared" si="8"/>
+      <c r="AB54">
+        <f>U54*P54+AB53</f>
         <v>2.5145</v>
       </c>
-      <c r="X54">
-        <f t="shared" si="5"/>
+      <c r="AC54">
+        <f>AB54-L54</f>
         <v>0</v>
       </c>
-      <c r="Y54">
+      <c r="AD54">
         <v>0.79924398660659701</v>
       </c>
-      <c r="Z54">
-        <f t="shared" si="6"/>
+      <c r="AE54">
+        <f>AD54*P54+AE53</f>
         <v>2.1162038187350447</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>3.1364999999999998</v>
       </c>
@@ -10639,16 +11579,16 @@
         <f t="shared" si="0"/>
         <v>5.1899999999999835E-2</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="Q55">
         <f t="shared" si="1"/>
         <v>1.6530149999999952E-2</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="2">
         <f t="shared" si="7"/>
         <v>0.66207633800000043</v>
       </c>
       <c r="S55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.3995955712172006</v>
       </c>
       <c r="T55">
@@ -10660,25 +11600,42 @@
         <v>1.1868978805395005</v>
       </c>
       <c r="V55">
+        <f t="shared" si="5"/>
+        <v>-0.19353690206919105</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="6"/>
+        <v>1.1868978805395005</v>
+      </c>
+      <c r="X55">
+        <v>3.6212229169905099E-3</v>
+      </c>
+      <c r="Y55">
+        <v>-8.8871006246015502E-2</v>
+      </c>
+      <c r="Z55">
+        <v>-1.6478397618173501E-2</v>
+      </c>
+      <c r="AA55">
         <v>1.1868978805395001</v>
       </c>
-      <c r="W55">
-        <f t="shared" si="8"/>
+      <c r="AB55">
+        <f>U55*P55+AB54</f>
         <v>2.5760999999999998</v>
       </c>
-      <c r="X55">
-        <f t="shared" si="5"/>
+      <c r="AC55">
+        <f>AB55-L55</f>
         <v>0</v>
       </c>
-      <c r="Y55">
+      <c r="AD55">
         <v>0.76486051082610995</v>
       </c>
-      <c r="Z55">
-        <f t="shared" si="6"/>
+      <c r="AE55">
+        <f>AD55*P55+AE54</f>
         <v>2.1559000792469196</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>3.1854</v>
       </c>
@@ -10725,16 +11682,16 @@
         <f t="shared" si="0"/>
         <v>4.8900000000000166E-2</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="Q56">
         <f t="shared" si="1"/>
         <v>1.5574650000000056E-2</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="2">
         <f t="shared" si="7"/>
         <v>0.67765098800000045</v>
       </c>
       <c r="S56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.4327327045304008</v>
       </c>
       <c r="T56">
@@ -10746,25 +11703,42 @@
         <v>1.1370143149284235</v>
       </c>
       <c r="V56">
+        <f t="shared" si="5"/>
+        <v>-4.9883565611076985E-2</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="6"/>
+        <v>1.1370143149284235</v>
+      </c>
+      <c r="X56">
+        <v>1.61282178014516E-2</v>
+      </c>
+      <c r="Y56">
+        <v>-7.2742788444563805E-2</v>
+      </c>
+      <c r="Z56">
+        <v>-1.9918396412409601E-2</v>
+      </c>
+      <c r="AA56">
         <v>1.13701431492842</v>
       </c>
-      <c r="W56">
-        <f t="shared" si="8"/>
+      <c r="AB56">
+        <f>U56*P56+AB55</f>
         <v>2.6316999999999999</v>
       </c>
-      <c r="X56">
-        <f t="shared" si="5"/>
+      <c r="AC56">
+        <f>AB56-L56</f>
         <v>0</v>
       </c>
-      <c r="Y56">
+      <c r="AD56">
         <v>0.75365602970123202</v>
       </c>
-      <c r="Z56">
-        <f t="shared" si="6"/>
+      <c r="AE56">
+        <f>AD56*P56+AE55</f>
         <v>2.1927538590993101</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>3.2528000000000001</v>
       </c>
@@ -10811,16 +11785,16 @@
         <f t="shared" si="0"/>
         <v>6.7400000000000126E-2</v>
       </c>
-      <c r="Q57" s="2">
+      <c r="Q57">
         <f t="shared" si="1"/>
         <v>0.12054490000000022</v>
       </c>
-      <c r="R57">
+      <c r="R57" s="2">
         <f t="shared" si="7"/>
         <v>0.79819588800000063</v>
       </c>
       <c r="S57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.486531107381601</v>
       </c>
       <c r="T57">
@@ -10832,25 +11806,42 @@
         <v>0.92878338278931893</v>
       </c>
       <c r="V57">
+        <f t="shared" si="5"/>
+        <v>-0.2082309321391046</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="6"/>
+        <v>0.92878338278931893</v>
+      </c>
+      <c r="X57">
+        <v>7.6277516782283696E-3</v>
+      </c>
+      <c r="Y57">
+        <v>-6.5115036766335399E-2</v>
+      </c>
+      <c r="Z57">
+        <v>-2.4102166872336499E-2</v>
+      </c>
+      <c r="AA57">
         <v>0.92878338278931805</v>
       </c>
-      <c r="W57">
-        <f t="shared" si="8"/>
+      <c r="AB57">
+        <f>U57*P57+AB56</f>
         <v>2.6943000000000001</v>
       </c>
-      <c r="X57">
-        <f t="shared" si="5"/>
+      <c r="AC57">
+        <f>AB57-L57</f>
         <v>0</v>
       </c>
-      <c r="Y57">
+      <c r="AD57">
         <v>0.74849742650985696</v>
       </c>
-      <c r="Z57">
-        <f t="shared" si="6"/>
+      <c r="AE57">
+        <f>AD57*P57+AE56</f>
         <v>2.2432025856460744</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>3.3033000000000001</v>
       </c>
@@ -10897,16 +11888,16 @@
         <f t="shared" si="0"/>
         <v>5.0499999999999989E-2</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="Q58">
         <f t="shared" si="1"/>
         <v>1.0739329999999998E-2</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="2">
         <f t="shared" si="7"/>
         <v>0.80893521800000068</v>
       </c>
       <c r="S58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.5273823358906009</v>
       </c>
       <c r="T58">
@@ -10918,25 +11909,42 @@
         <v>0.88118811881187664</v>
       </c>
       <c r="V58">
+        <f t="shared" si="5"/>
+        <v>-4.7595263977442293E-2</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="6"/>
+        <v>0.88118811881187664</v>
+      </c>
+      <c r="X58">
+        <v>8.3720106631517393E-3</v>
+      </c>
+      <c r="Y58">
+        <v>-5.67430261031837E-2</v>
+      </c>
+      <c r="Z58">
+        <v>-2.6767958141773001E-2</v>
+      </c>
+      <c r="AA58">
         <v>0.88118811881187598</v>
       </c>
-      <c r="W58">
-        <f t="shared" si="8"/>
+      <c r="AB58">
+        <f>U58*P58+AB57</f>
         <v>2.7387999999999999</v>
       </c>
-      <c r="X58">
-        <f t="shared" si="5"/>
+      <c r="AC58">
+        <f>AB58-L58</f>
         <v>0</v>
       </c>
-      <c r="Y58">
+      <c r="AD58">
         <v>0.72164624929428101</v>
       </c>
-      <c r="Z58">
-        <f t="shared" si="6"/>
+      <c r="AE58">
+        <f>AD58*P58+AE57</f>
         <v>2.2796457212354357</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>3.3622000000000001</v>
       </c>
@@ -10983,16 +11991,16 @@
         <f t="shared" si="0"/>
         <v>5.8899999999999952E-2</v>
       </c>
-      <c r="Q59" s="2">
+      <c r="Q59">
         <f t="shared" si="1"/>
         <v>3.8038797999999971E-2</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="2">
         <f t="shared" si="7"/>
         <v>0.84697401600000066</v>
       </c>
       <c r="S59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.5772691054330008</v>
       </c>
       <c r="T59">
@@ -11004,25 +12012,42 @@
         <v>1.1035653650254669</v>
       </c>
       <c r="V59">
+        <f t="shared" si="5"/>
+        <v>0.22237724621359023</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="6"/>
+        <v>1.1035653650254669</v>
+      </c>
+      <c r="X59">
+        <v>1.3418376445770199E-2</v>
+      </c>
+      <c r="Y59">
+        <v>-4.3324649657413401E-2</v>
+      </c>
+      <c r="Z59">
+        <v>-2.9110831870985399E-2</v>
+      </c>
+      <c r="AA59">
         <v>1.10356536502546</v>
       </c>
-      <c r="W59">
-        <f t="shared" si="8"/>
+      <c r="AB59">
+        <f>U59*P59+AB58</f>
         <v>2.8037999999999998</v>
       </c>
-      <c r="X59">
-        <f t="shared" si="5"/>
+      <c r="AC59">
+        <f>AB59-L59</f>
         <v>0</v>
       </c>
-      <c r="Y59">
+      <c r="AD59">
         <v>0.723405241966247</v>
       </c>
-      <c r="Z59">
-        <f t="shared" si="6"/>
+      <c r="AE59">
+        <f>AD59*P59+AE58</f>
         <v>2.3222542899872476</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>3.4171</v>
       </c>
@@ -11069,16 +12094,16 @@
         <f t="shared" si="0"/>
         <v>5.4899999999999949E-2</v>
       </c>
-      <c r="Q60" s="2">
+      <c r="Q60">
         <f t="shared" si="1"/>
         <v>-7.6506443999999937E-2</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="2">
         <f t="shared" si="7"/>
         <v>0.77046757200000071</v>
       </c>
       <c r="S60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.6195677751358009</v>
       </c>
       <c r="T60">
@@ -11090,25 +12115,42 @@
         <v>1.0018214936247762</v>
       </c>
       <c r="V60">
+        <f t="shared" si="5"/>
+        <v>-0.10174387140069063</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="6"/>
+        <v>1.0018214936247762</v>
+      </c>
+      <c r="X60">
+        <v>4.4069499708712101E-3</v>
+      </c>
+      <c r="Y60">
+        <v>-3.8917699686542198E-2</v>
+      </c>
+      <c r="Z60">
+        <v>-3.1129997408172402E-2</v>
+      </c>
+      <c r="AA60">
         <v>1.00182149362477</v>
       </c>
-      <c r="W60">
-        <f t="shared" si="8"/>
+      <c r="AB60">
+        <f>U60*P60+AB59</f>
         <v>2.8588</v>
       </c>
-      <c r="X60">
-        <f t="shared" si="5"/>
+      <c r="AC60">
+        <f>AB60-L60</f>
         <v>0</v>
       </c>
-      <c r="Y60">
+      <c r="AD60">
         <v>0.75725138187408403</v>
       </c>
-      <c r="Z60">
-        <f t="shared" si="6"/>
+      <c r="AE60">
+        <f>AD60*P60+AE59</f>
         <v>2.3638273908521348</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>3.4685000000000001</v>
       </c>
@@ -11155,16 +12197,16 @@
         <f t="shared" si="0"/>
         <v>5.1400000000000112E-2</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="Q61">
         <f t="shared" si="1"/>
         <v>-6.679327200000014E-2</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="2">
         <f t="shared" si="7"/>
         <v>0.70367430000000053</v>
       </c>
       <c r="S61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.6557366341558009</v>
       </c>
       <c r="T61">
@@ -11176,25 +12218,42 @@
         <v>1.0194552529182856</v>
       </c>
       <c r="V61">
+        <f t="shared" si="5"/>
+        <v>1.763375929350941E-2</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="6"/>
+        <v>1.0194552529182856</v>
+      </c>
+      <c r="X61">
+        <v>-1.8486429005861199E-2</v>
+      </c>
+      <c r="Y61">
+        <v>-5.7404128692403501E-2</v>
+      </c>
+      <c r="Z61">
+        <v>-3.3971117837261498E-2</v>
+      </c>
+      <c r="AA61">
         <v>1.0194552529182801</v>
       </c>
-      <c r="W61">
-        <f t="shared" si="8"/>
+      <c r="AB61">
+        <f>U61*P61+AB60</f>
         <v>2.9112</v>
       </c>
-      <c r="X61">
-        <f t="shared" si="5"/>
+      <c r="AC61">
+        <f>AB61-L61</f>
         <v>0</v>
       </c>
-      <c r="Y61">
+      <c r="AD61">
         <v>0.76929473876953103</v>
       </c>
-      <c r="Z61">
-        <f t="shared" si="6"/>
+      <c r="AE61">
+        <f>AD61*P61+AE60</f>
         <v>2.4033691404248887</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>3.5244</v>
       </c>
@@ -11241,16 +12300,16 @@
         <f t="shared" si="0"/>
         <v>5.5899999999999839E-2</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="Q62">
         <f t="shared" si="1"/>
         <v>-2.2460619999999938E-2</v>
       </c>
-      <c r="R62">
+      <c r="R62" s="2">
         <f t="shared" si="7"/>
         <v>0.6812136800000006</v>
       </c>
       <c r="S62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.6938164788678007</v>
       </c>
       <c r="T62">
@@ -11262,25 +12321,42 @@
         <v>0.91413237924865953</v>
       </c>
       <c r="V62">
+        <f t="shared" si="5"/>
+        <v>-0.10532287366962612</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="6"/>
+        <v>0.91413237924865953</v>
+      </c>
+      <c r="X62">
+        <v>-3.6276013124734098E-3</v>
+      </c>
+      <c r="Y62">
+        <v>-6.1031730004876897E-2</v>
+      </c>
+      <c r="Z62">
+        <v>-3.7378934075453799E-2</v>
+      </c>
+      <c r="AA62">
         <v>0.91413237924865898</v>
       </c>
-      <c r="W62">
-        <f t="shared" si="8"/>
+      <c r="AB62">
+        <f>U62*P62+AB61</f>
         <v>2.9622999999999999</v>
       </c>
-      <c r="X62">
-        <f t="shared" si="5"/>
+      <c r="AC62">
+        <f>AB62-L62</f>
         <v>0</v>
       </c>
-      <c r="Y62">
+      <c r="AD62">
         <v>0.80671906471252397</v>
       </c>
-      <c r="Z62">
-        <f t="shared" si="6"/>
+      <c r="AE62">
+        <f>AD62*P62+AE61</f>
         <v>2.4484647361423186</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>3.5798000000000001</v>
       </c>
@@ -11327,16 +12403,16 @@
         <f t="shared" si="0"/>
         <v>5.5400000000000116E-2</v>
       </c>
-      <c r="Q63" s="2">
+      <c r="Q63">
         <f t="shared" si="1"/>
         <v>2.1228172000000049E-2</v>
       </c>
-      <c r="R63">
+      <c r="R63" s="2">
         <f t="shared" si="7"/>
         <v>0.70244185200000064</v>
       </c>
       <c r="S63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.7327317574686008</v>
       </c>
       <c r="T63">
@@ -11348,25 +12424,42 @@
         <v>1.3050541516245506</v>
       </c>
       <c r="V63">
+        <f t="shared" si="5"/>
+        <v>0.3909217723758911</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="6"/>
+        <v>1.3050541516245506</v>
+      </c>
+      <c r="X63">
+        <v>-1.47638646885752E-2</v>
+      </c>
+      <c r="Y63">
+        <v>-7.5795594693452206E-2</v>
+      </c>
+      <c r="Z63">
+        <v>-4.1606901391558399E-2</v>
+      </c>
+      <c r="AA63">
         <v>1.30505415162455</v>
       </c>
-      <c r="W63">
-        <f t="shared" si="8"/>
+      <c r="AB63">
+        <f>U63*P63+AB62</f>
         <v>3.0346000000000002</v>
       </c>
-      <c r="X63">
-        <f t="shared" si="5"/>
+      <c r="AC63">
+        <f>AB63-L63</f>
         <v>0</v>
       </c>
-      <c r="Y63">
+      <c r="AD63">
         <v>0.81535905599594105</v>
       </c>
-      <c r="Z63">
-        <f t="shared" si="6"/>
+      <c r="AE63">
+        <f>AD63*P63+AE62</f>
         <v>2.493635627844494</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>3.6312000000000002</v>
       </c>
@@ -11413,16 +12506,16 @@
         <f t="shared" si="0"/>
         <v>5.1400000000000112E-2</v>
       </c>
-      <c r="Q64" s="2">
+      <c r="Q64">
         <f t="shared" si="1"/>
         <v>2.7654228000000062E-2</v>
       </c>
-      <c r="R64">
+      <c r="R64" s="2">
         <f t="shared" si="7"/>
         <v>0.7300960800000007</v>
       </c>
       <c r="S64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.7702586959806008</v>
       </c>
       <c r="T64">
@@ -11434,25 +12527,42 @@
         <v>1.2101167315175034</v>
       </c>
       <c r="V64">
+        <f t="shared" si="5"/>
+        <v>-9.4937420107047199E-2</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="6"/>
+        <v>1.2101167315175034</v>
+      </c>
+      <c r="X64">
+        <v>-5.1457411609590002E-3</v>
+      </c>
+      <c r="Y64">
+        <v>-8.0941335854411198E-2</v>
+      </c>
+      <c r="Z64">
+        <v>-4.5812522651236802E-2</v>
+      </c>
+      <c r="AA64">
         <v>1.2101167315175001</v>
       </c>
-      <c r="W64">
-        <f t="shared" si="8"/>
+      <c r="AB64">
+        <f>U64*P64+AB63</f>
         <v>3.0968</v>
       </c>
-      <c r="X64">
-        <f t="shared" si="5"/>
+      <c r="AC64">
+        <f>AB64-L64</f>
         <v>0</v>
       </c>
-      <c r="Y64">
+      <c r="AD64">
         <v>0.80961585044860795</v>
       </c>
-      <c r="Z64">
-        <f t="shared" si="6"/>
+      <c r="AE64">
+        <f>AD64*P64+AE63</f>
         <v>2.5352498825575527</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>3.6871999999999998</v>
       </c>
@@ -11499,16 +12609,16 @@
         <f t="shared" si="0"/>
         <v>5.5999999999999606E-2</v>
       </c>
-      <c r="Q65" s="2">
+      <c r="Q65">
         <f t="shared" si="1"/>
         <v>1.701279999999988E-3</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="2">
         <f t="shared" si="7"/>
         <v>0.73179736000000073</v>
       </c>
       <c r="S65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.8112393481406006</v>
       </c>
       <c r="T65">
@@ -11520,25 +12630,42 @@
         <v>0.91964285714286143</v>
       </c>
       <c r="V65">
+        <f t="shared" si="5"/>
+        <v>-0.290473874374642</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="6"/>
+        <v>0.91964285714286143</v>
+      </c>
+      <c r="X65">
+        <v>-6.88412925228476E-3</v>
+      </c>
+      <c r="Y65">
+        <v>-8.7825465106695894E-2</v>
+      </c>
+      <c r="Z65">
+        <v>-5.0756905414085798E-2</v>
+      </c>
+      <c r="AA65">
         <v>0.91964285714286098</v>
       </c>
-      <c r="W65">
-        <f t="shared" si="8"/>
+      <c r="AB65">
+        <f>U65*P65+AB64</f>
         <v>3.1482999999999999</v>
       </c>
-      <c r="X65">
-        <f t="shared" si="5"/>
+      <c r="AC65">
+        <f>AB65-L65</f>
         <v>0</v>
       </c>
-      <c r="Y65">
+      <c r="AD65">
         <v>0.78894209861755304</v>
       </c>
-      <c r="Z65">
-        <f t="shared" si="6"/>
+      <c r="AE65">
+        <f>AD65*P65+AE64</f>
         <v>2.5794306400801355</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>3.7555000000000001</v>
       </c>
@@ -11585,16 +12712,16 @@
         <f t="shared" si="0"/>
         <v>6.8300000000000249E-2</v>
       </c>
-      <c r="Q66" s="2">
+      <c r="Q66">
         <f t="shared" si="1"/>
         <v>1.646576400000006E-2</v>
       </c>
-      <c r="R66">
+      <c r="R66" s="2">
         <f t="shared" si="7"/>
         <v>0.74826312400000083</v>
       </c>
       <c r="S66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.8623457195098008</v>
       </c>
       <c r="T66">
@@ -11606,25 +12733,42 @@
         <v>0.78477306002928426</v>
       </c>
       <c r="V66">
+        <f t="shared" si="5"/>
+        <v>-0.13486979711357716</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="6"/>
+        <v>0.78477306002928426</v>
+      </c>
+      <c r="X66">
+        <v>1.02149760350584E-2</v>
+      </c>
+      <c r="Y66">
+        <v>-7.7610489071637395E-2</v>
+      </c>
+      <c r="Z66">
+        <v>-5.61310971736571E-2</v>
+      </c>
+      <c r="AA66">
         <v>0.78477306002928404</v>
       </c>
-      <c r="W66">
-        <f t="shared" si="8"/>
+      <c r="AB66">
+        <f>U66*P66+AB65</f>
         <v>3.2019000000000002</v>
       </c>
-      <c r="X66">
-        <f t="shared" si="5"/>
+      <c r="AC66">
+        <f>AB66-L66</f>
         <v>0</v>
       </c>
-      <c r="Y66">
+      <c r="AD66">
         <v>0.76621657609939497</v>
       </c>
-      <c r="Z66">
-        <f t="shared" si="6"/>
+      <c r="AE66">
+        <f>AD66*P66+AE65</f>
         <v>2.6317632322277245</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>3.8079999999999998</v>
       </c>
@@ -11668,49 +12812,66 @@
         <v>356.0367</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P98" si="10">A67-A66</f>
+        <f t="shared" ref="P67:P98" si="9">A67-A66</f>
         <v>5.2499999999999769E-2</v>
       </c>
-      <c r="Q67" s="2">
-        <f t="shared" ref="Q67:Q98" si="11">F67*9.8*P67</f>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q98" si="10">F67*9.8*P67</f>
         <v>7.2904649999999682E-2</v>
       </c>
-      <c r="R67">
-        <f t="shared" ref="R67:R98" si="12">Q67+R66</f>
+      <c r="R67" s="2">
+        <f t="shared" ref="R67:R98" si="11">Q67+R66</f>
         <v>0.82116777400000052</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S98" si="13">S66+R67*P67</f>
+        <f t="shared" ref="S67:S98" si="12">S66+R67*P67</f>
         <v>1.9054570276448006</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67:T98" si="14">L67-L66</f>
+        <f t="shared" ref="T67:T98" si="13">L67-L66</f>
         <v>4.7699999999999854E-2</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" ref="U67:U98" si="15">T67/P67</f>
+        <f t="shared" ref="U67:U98" si="14">T67/P67</f>
         <v>0.90857142857142981</v>
       </c>
       <c r="V67">
+        <f t="shared" ref="V67:V98" si="15">U67-U66</f>
+        <v>0.12379836854214554</v>
+      </c>
+      <c r="W67">
+        <f t="shared" ref="W67:W98" si="16">V67+W66</f>
+        <v>0.90857142857142981</v>
+      </c>
+      <c r="X67">
+        <v>1.00093353539705E-2</v>
+      </c>
+      <c r="Y67">
+        <v>-6.7601153717666895E-2</v>
+      </c>
+      <c r="Z67">
+        <v>-5.9734221154879003E-2</v>
+      </c>
+      <c r="AA67">
         <v>0.90857142857142204</v>
       </c>
-      <c r="W67">
-        <f t="shared" si="8"/>
+      <c r="AB67">
+        <f>U67*P67+AB66</f>
         <v>3.2496</v>
       </c>
-      <c r="X67">
-        <f t="shared" ref="X67:X98" si="16">W67-L67</f>
+      <c r="AC67">
+        <f>AB67-L67</f>
         <v>0</v>
       </c>
-      <c r="Y67">
+      <c r="AD67">
         <v>0.73910063505172696</v>
       </c>
-      <c r="Z67">
-        <f t="shared" ref="Z67:Z98" si="17">Y67*P67+Z66</f>
+      <c r="AE67">
+        <f>AD67*P67+AE66</f>
         <v>2.6705660155679398</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>3.8593999999999999</v>
       </c>
@@ -11754,49 +12915,66 @@
         <v>356.52749999999997</v>
       </c>
       <c r="P68">
+        <f t="shared" si="9"/>
+        <v>5.1400000000000112E-2</v>
+      </c>
+      <c r="Q68">
         <f t="shared" si="10"/>
-        <v>5.1400000000000112E-2</v>
-      </c>
-      <c r="Q68" s="2">
+        <v>3.3195148000000077E-2</v>
+      </c>
+      <c r="R68" s="2">
         <f t="shared" si="11"/>
-        <v>3.3195148000000077E-2</v>
-      </c>
-      <c r="R68">
+        <v>0.85436292200000064</v>
+      </c>
+      <c r="S68">
         <f t="shared" si="12"/>
-        <v>0.85436292200000064</v>
-      </c>
-      <c r="S68">
+        <v>1.9493712818356008</v>
+      </c>
+      <c r="T68">
         <f t="shared" si="13"/>
-        <v>1.9493712818356008</v>
-      </c>
-      <c r="T68">
+        <v>3.4499999999999975E-2</v>
+      </c>
+      <c r="U68" s="1">
         <f t="shared" si="14"/>
-        <v>3.4499999999999975E-2</v>
-      </c>
-      <c r="U68" s="1">
+        <v>0.67120622568093191</v>
+      </c>
+      <c r="V68">
         <f t="shared" si="15"/>
+        <v>-0.2373652028904979</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="16"/>
         <v>0.67120622568093191</v>
       </c>
-      <c r="V68">
+      <c r="X68">
+        <v>1.30926696583628E-2</v>
+      </c>
+      <c r="Y68">
+        <v>-5.4508484059304002E-2</v>
+      </c>
+      <c r="Z68">
+        <v>-6.2575848655284094E-2</v>
+      </c>
+      <c r="AA68">
         <v>0.67120622568093702</v>
       </c>
-      <c r="W68">
-        <f t="shared" ref="W68:W98" si="18">U68*P68+W67</f>
+      <c r="AB68">
+        <f>U68*P68+AB67</f>
         <v>3.2841</v>
       </c>
-      <c r="X68">
-        <f t="shared" si="16"/>
+      <c r="AC68">
+        <f>AB68-L68</f>
         <v>0</v>
       </c>
-      <c r="Y68">
+      <c r="AD68">
         <v>0.71718448400497403</v>
       </c>
-      <c r="Z68">
-        <f t="shared" si="17"/>
+      <c r="AE68">
+        <f>AD68*P68+AE67</f>
         <v>2.7074292980457955</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>3.9157999999999999</v>
       </c>
@@ -11840,49 +13018,66 @@
         <v>356.39929999999998</v>
       </c>
       <c r="P69">
+        <f t="shared" si="9"/>
+        <v>5.6400000000000006E-2</v>
+      </c>
+      <c r="Q69">
         <f t="shared" si="10"/>
-        <v>5.6400000000000006E-2</v>
-      </c>
-      <c r="Q69" s="2">
+        <v>4.7755008000000015E-2</v>
+      </c>
+      <c r="R69" s="2">
         <f t="shared" si="11"/>
-        <v>4.7755008000000015E-2</v>
-      </c>
-      <c r="R69">
+        <v>0.90211793000000062</v>
+      </c>
+      <c r="S69">
         <f t="shared" si="12"/>
-        <v>0.90211793000000062</v>
-      </c>
-      <c r="S69">
+        <v>2.0002507330876007</v>
+      </c>
+      <c r="T69">
         <f t="shared" si="13"/>
-        <v>2.0002507330876007</v>
-      </c>
-      <c r="T69">
+        <v>3.1000000000000139E-2</v>
+      </c>
+      <c r="U69" s="1">
         <f t="shared" si="14"/>
-        <v>3.1000000000000139E-2</v>
-      </c>
-      <c r="U69" s="1">
+        <v>0.54964539007092439</v>
+      </c>
+      <c r="V69">
         <f t="shared" si="15"/>
+        <v>-0.12156083561000752</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="16"/>
         <v>0.54964539007092439</v>
       </c>
-      <c r="V69">
+      <c r="X69">
+        <v>1.57842524349689E-2</v>
+      </c>
+      <c r="Y69">
+        <v>-3.8724231624335102E-2</v>
+      </c>
+      <c r="Z69">
+        <v>-6.4815014550622205E-2</v>
+      </c>
+      <c r="AA69">
         <v>0.54964539007092394</v>
       </c>
-      <c r="W69">
-        <f t="shared" si="18"/>
+      <c r="AB69">
+        <f>U69*P69+AB68</f>
         <v>3.3151000000000002</v>
       </c>
-      <c r="X69">
-        <f t="shared" si="16"/>
+      <c r="AC69">
+        <f>AB69-L69</f>
         <v>0</v>
       </c>
-      <c r="Y69">
+      <c r="AD69">
         <v>0.72272813320159901</v>
       </c>
-      <c r="Z69">
-        <f t="shared" si="17"/>
+      <c r="AE69">
+        <f>AD69*P69+AE68</f>
         <v>2.7481911647583654</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>3.9752000000000001</v>
       </c>
@@ -11926,49 +13121,66 @@
         <v>356.62920000000003</v>
       </c>
       <c r="P70">
+        <f t="shared" si="9"/>
+        <v>5.9400000000000119E-2</v>
+      </c>
+      <c r="Q70">
         <f t="shared" si="10"/>
-        <v>5.9400000000000119E-2</v>
-      </c>
-      <c r="Q70" s="2">
+        <v>-0.14890629600000033</v>
+      </c>
+      <c r="R70" s="2">
         <f t="shared" si="11"/>
-        <v>-0.14890629600000033</v>
-      </c>
-      <c r="R70">
+        <v>0.75321163400000035</v>
+      </c>
+      <c r="S70">
         <f t="shared" si="12"/>
-        <v>0.75321163400000035</v>
-      </c>
-      <c r="S70">
+        <v>2.0449915041472009</v>
+      </c>
+      <c r="T70">
         <f t="shared" si="13"/>
-        <v>2.0449915041472009</v>
-      </c>
-      <c r="T70">
+        <v>3.2899999999999707E-2</v>
+      </c>
+      <c r="U70" s="1">
         <f t="shared" si="14"/>
-        <v>3.2899999999999707E-2</v>
-      </c>
-      <c r="U70" s="1">
+        <v>0.55387205387204785</v>
+      </c>
+      <c r="V70">
         <f t="shared" si="15"/>
+        <v>4.2266638011234647E-3</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="16"/>
         <v>0.55387205387204785</v>
       </c>
-      <c r="V70">
+      <c r="X70">
+        <v>1.1049276217818199E-2</v>
+      </c>
+      <c r="Y70">
+        <v>-2.76749554065168E-2</v>
+      </c>
+      <c r="Z70">
+        <v>-6.6575964543409596E-2</v>
+      </c>
+      <c r="AA70">
         <v>0.55387205387205496</v>
       </c>
-      <c r="W70">
-        <f t="shared" si="18"/>
+      <c r="AB70">
+        <f>U70*P70+AB69</f>
         <v>3.3479999999999999</v>
       </c>
-      <c r="X70">
-        <f t="shared" si="16"/>
+      <c r="AC70">
+        <f>AB70-L70</f>
         <v>0</v>
       </c>
-      <c r="Y70">
+      <c r="AD70">
         <v>0.73993396759033203</v>
       </c>
-      <c r="Z70">
-        <f t="shared" si="17"/>
+      <c r="AE70">
+        <f>AD70*P70+AE69</f>
         <v>2.7921432424332311</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>4.0301</v>
       </c>
@@ -12012,49 +13224,66 @@
         <v>356.23779999999999</v>
       </c>
       <c r="P71">
+        <f t="shared" si="9"/>
+        <v>5.4899999999999949E-2</v>
+      </c>
+      <c r="Q71">
         <f t="shared" si="10"/>
-        <v>5.4899999999999949E-2</v>
-      </c>
-      <c r="Q71" s="2">
+        <v>-5.0627681999999959E-2</v>
+      </c>
+      <c r="R71" s="2">
         <f t="shared" si="11"/>
-        <v>-5.0627681999999959E-2</v>
-      </c>
-      <c r="R71">
+        <v>0.70258395200000034</v>
+      </c>
+      <c r="S71">
         <f t="shared" si="12"/>
-        <v>0.70258395200000034</v>
-      </c>
-      <c r="S71">
+        <v>2.0835633631120007</v>
+      </c>
+      <c r="T71">
         <f t="shared" si="13"/>
-        <v>2.0835633631120007</v>
-      </c>
-      <c r="T71">
+        <v>4.2000000000000259E-2</v>
+      </c>
+      <c r="U71" s="1">
         <f t="shared" si="14"/>
-        <v>4.2000000000000259E-2</v>
-      </c>
-      <c r="U71" s="1">
+        <v>0.76502732240437699</v>
+      </c>
+      <c r="V71">
         <f t="shared" si="15"/>
+        <v>0.21115526853232913</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="16"/>
         <v>0.76502732240437699</v>
       </c>
-      <c r="V71">
+      <c r="X71">
+        <v>-1.1501041240990099E-2</v>
+      </c>
+      <c r="Y71">
+        <v>-3.9175996647506997E-2</v>
+      </c>
+      <c r="Z71">
+        <v>-6.8864365147988299E-2</v>
+      </c>
+      <c r="AA71">
         <v>0.76502732240436799</v>
       </c>
-      <c r="W71">
-        <f t="shared" si="18"/>
+      <c r="AB71">
+        <f>U71*P71+AB70</f>
         <v>3.39</v>
       </c>
-      <c r="X71">
-        <f t="shared" si="16"/>
+      <c r="AC71">
+        <f>AB71-L71</f>
         <v>0</v>
       </c>
-      <c r="Y71">
+      <c r="AD71">
         <v>0.79444366693496704</v>
       </c>
-      <c r="Z71">
-        <f t="shared" si="17"/>
+      <c r="AE71">
+        <f>AD71*P71+AE70</f>
         <v>2.8357581997479606</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>4.0854999999999997</v>
       </c>
@@ -12098,49 +13327,66 @@
         <v>355.52120000000002</v>
       </c>
       <c r="P72">
+        <f t="shared" si="9"/>
+        <v>5.5399999999999672E-2</v>
+      </c>
+      <c r="Q72">
         <f t="shared" si="10"/>
-        <v>5.5399999999999672E-2</v>
-      </c>
-      <c r="Q72" s="2">
+        <v>-7.6606011999999557E-2</v>
+      </c>
+      <c r="R72" s="2">
         <f t="shared" si="11"/>
-        <v>-7.6606011999999557E-2</v>
-      </c>
-      <c r="R72">
+        <v>0.62597794000000073</v>
+      </c>
+      <c r="S72">
         <f t="shared" si="12"/>
-        <v>0.62597794000000073</v>
-      </c>
-      <c r="S72">
+        <v>2.1182425409880006</v>
+      </c>
+      <c r="T72">
         <f t="shared" si="13"/>
-        <v>2.1182425409880006</v>
-      </c>
-      <c r="T72">
+        <v>3.0299999999999994E-2</v>
+      </c>
+      <c r="U72" s="1">
         <f t="shared" si="14"/>
-        <v>3.0299999999999994E-2</v>
-      </c>
-      <c r="U72" s="1">
+        <v>0.54693140794224138</v>
+      </c>
+      <c r="V72">
         <f t="shared" si="15"/>
+        <v>-0.21809591446213561</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="16"/>
         <v>0.54693140794224138</v>
       </c>
-      <c r="V72">
+      <c r="X72">
+        <v>-1.6932051628828E-2</v>
+      </c>
+      <c r="Y72">
+        <v>-5.6108048276334997E-2</v>
+      </c>
+      <c r="Z72">
+        <v>-7.2193654232692001E-2</v>
+      </c>
+      <c r="AA72">
         <v>0.54693140794224104</v>
       </c>
-      <c r="W72">
-        <f t="shared" si="18"/>
+      <c r="AB72">
+        <f>U72*P72+AB71</f>
         <v>3.4203000000000001</v>
       </c>
-      <c r="X72">
-        <f t="shared" si="16"/>
+      <c r="AC72">
+        <f>AB72-L72</f>
         <v>0</v>
       </c>
-      <c r="Y72">
+      <c r="AD72">
         <v>0.86255580186843805</v>
       </c>
-      <c r="Z72">
-        <f t="shared" si="17"/>
+      <c r="AE72">
+        <f>AD72*P72+AE71</f>
         <v>2.8835437911714719</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>4.1368999999999998</v>
       </c>
@@ -12184,49 +13430,66 @@
         <v>355.26049999999998</v>
       </c>
       <c r="P73">
+        <f t="shared" si="9"/>
+        <v>5.1400000000000112E-2</v>
+      </c>
+      <c r="Q73">
         <f t="shared" si="10"/>
-        <v>5.1400000000000112E-2</v>
-      </c>
-      <c r="Q73" s="2">
+        <v>-3.6771560000000085E-2</v>
+      </c>
+      <c r="R73" s="2">
         <f t="shared" si="11"/>
-        <v>-3.6771560000000085E-2</v>
-      </c>
-      <c r="R73">
+        <v>0.5892063800000007</v>
+      </c>
+      <c r="S73">
         <f t="shared" si="12"/>
-        <v>0.5892063800000007</v>
-      </c>
-      <c r="S73">
+        <v>2.1485277489200008</v>
+      </c>
+      <c r="T73">
         <f t="shared" si="13"/>
-        <v>2.1485277489200008</v>
-      </c>
-      <c r="T73">
+        <v>2.7199999999999669E-2</v>
+      </c>
+      <c r="U73" s="1">
         <f t="shared" si="14"/>
-        <v>2.7199999999999669E-2</v>
-      </c>
-      <c r="U73" s="1">
+        <v>0.52918287937742425</v>
+      </c>
+      <c r="V73">
         <f t="shared" si="15"/>
+        <v>-1.7748528564817123E-2</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="16"/>
         <v>0.52918287937742425</v>
       </c>
-      <c r="V73">
+      <c r="X73">
+        <v>-1.9460044801235199E-2</v>
+      </c>
+      <c r="Y73">
+        <v>-7.5568093077570203E-2</v>
+      </c>
+      <c r="Z73">
+        <v>-7.6248226535615193E-2</v>
+      </c>
+      <c r="AA73">
         <v>0.52918287937742403</v>
       </c>
-      <c r="W73">
-        <f t="shared" si="18"/>
+      <c r="AB73">
+        <f>U73*P73+AB72</f>
         <v>3.4474999999999998</v>
       </c>
-      <c r="X73">
-        <f t="shared" si="16"/>
+      <c r="AC73">
+        <f>AB73-L73</f>
         <v>0</v>
       </c>
-      <c r="Y73">
+      <c r="AD73">
         <v>0.86596494913101196</v>
       </c>
-      <c r="Z73">
-        <f t="shared" si="17"/>
+      <c r="AE73">
+        <f>AD73*P73+AE72</f>
         <v>2.9280543895568059</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>4.1909000000000001</v>
       </c>
@@ -12270,49 +13533,66 @@
         <v>354.59949999999998</v>
       </c>
       <c r="P74">
+        <f t="shared" si="9"/>
+        <v>5.400000000000027E-2</v>
+      </c>
+      <c r="Q74">
         <f t="shared" si="10"/>
-        <v>5.400000000000027E-2</v>
-      </c>
-      <c r="Q74" s="2">
+        <v>-2.7306720000000138E-2</v>
+      </c>
+      <c r="R74" s="2">
         <f t="shared" si="11"/>
-        <v>-2.7306720000000138E-2</v>
-      </c>
-      <c r="R74">
+        <v>0.56189966000000058</v>
+      </c>
+      <c r="S74">
         <f t="shared" si="12"/>
-        <v>0.56189966000000058</v>
-      </c>
-      <c r="S74">
+        <v>2.178870330560001</v>
+      </c>
+      <c r="T74">
         <f t="shared" si="13"/>
-        <v>2.178870330560001</v>
-      </c>
-      <c r="T74">
+        <v>3.4900000000000375E-2</v>
+      </c>
+      <c r="U74" s="1">
         <f t="shared" si="14"/>
-        <v>3.4900000000000375E-2</v>
-      </c>
-      <c r="U74" s="1">
+        <v>0.64629629629630003</v>
+      </c>
+      <c r="V74">
         <f t="shared" si="15"/>
+        <v>0.11711341691887578</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="16"/>
         <v>0.64629629629630003</v>
       </c>
-      <c r="V74">
+      <c r="X74">
+        <v>4.6170963905751696E-3</v>
+      </c>
+      <c r="Y74">
+        <v>-7.0950996686995102E-2</v>
+      </c>
+      <c r="Z74">
+        <v>-8.0384429883390507E-2</v>
+      </c>
+      <c r="AA74">
         <v>0.64629629629630003</v>
       </c>
-      <c r="W74">
-        <f t="shared" si="18"/>
+      <c r="AB74">
+        <f>U74*P74+AB73</f>
         <v>3.4824000000000002</v>
       </c>
-      <c r="X74">
-        <f t="shared" si="16"/>
+      <c r="AC74">
+        <f>AB74-L74</f>
         <v>0</v>
       </c>
-      <c r="Y74">
+      <c r="AD74">
         <v>0.89010941982269198</v>
       </c>
-      <c r="Z74">
-        <f t="shared" si="17"/>
+      <c r="AE74">
+        <f>AD74*P74+AE73</f>
         <v>2.9761202982272317</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>4.2438000000000002</v>
       </c>
@@ -12356,49 +13636,66 @@
         <v>353.9676</v>
       </c>
       <c r="P75">
+        <f t="shared" si="9"/>
+        <v>5.2900000000000169E-2</v>
+      </c>
+      <c r="Q75">
         <f t="shared" si="10"/>
-        <v>5.2900000000000169E-2</v>
-      </c>
-      <c r="Q75" s="2">
+        <v>-4.0384918000000131E-2</v>
+      </c>
+      <c r="R75" s="2">
         <f t="shared" si="11"/>
-        <v>-4.0384918000000131E-2</v>
-      </c>
-      <c r="R75">
+        <v>0.52151474200000048</v>
+      </c>
+      <c r="S75">
         <f t="shared" si="12"/>
-        <v>0.52151474200000048</v>
-      </c>
-      <c r="S75">
+        <v>2.2064584604118012</v>
+      </c>
+      <c r="T75">
         <f t="shared" si="13"/>
-        <v>2.2064584604118012</v>
-      </c>
-      <c r="T75">
+        <v>2.5499999999999634E-2</v>
+      </c>
+      <c r="U75" s="1">
         <f t="shared" si="14"/>
-        <v>2.5499999999999634E-2</v>
-      </c>
-      <c r="U75" s="1">
+        <v>0.48204158790169288</v>
+      </c>
+      <c r="V75">
         <f t="shared" si="15"/>
+        <v>-0.16425470839460715</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="16"/>
         <v>0.48204158790169288</v>
       </c>
-      <c r="V75">
+      <c r="X75">
+        <v>-1.6969786956906301E-2</v>
+      </c>
+      <c r="Y75">
+        <v>-8.7920783643901407E-2</v>
+      </c>
+      <c r="Z75">
+        <v>-8.5325046027533005E-2</v>
+      </c>
+      <c r="AA75">
         <v>0.48204158790169199</v>
       </c>
-      <c r="W75">
-        <f t="shared" si="18"/>
+      <c r="AB75">
+        <f>U75*P75+AB74</f>
         <v>3.5078999999999998</v>
       </c>
-      <c r="X75">
-        <f t="shared" si="16"/>
+      <c r="AC75">
+        <f>AB75-L75</f>
         <v>0</v>
       </c>
-      <c r="Y75">
+      <c r="AD75">
         <v>0.86767321825027399</v>
       </c>
-      <c r="Z75">
-        <f t="shared" si="17"/>
+      <c r="AE75">
+        <f>AD75*P75+AE74</f>
         <v>3.0220202114726713</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>4.2976999999999999</v>
       </c>
@@ -12442,49 +13739,66 @@
         <v>352.7713</v>
       </c>
       <c r="P76">
+        <f t="shared" si="9"/>
+        <v>5.3899999999999615E-2</v>
+      </c>
+      <c r="Q76">
         <f t="shared" si="10"/>
-        <v>5.3899999999999615E-2</v>
-      </c>
-      <c r="Q76" s="2">
+        <v>-3.8876991999999722E-2</v>
+      </c>
+      <c r="R76" s="2">
         <f t="shared" si="11"/>
-        <v>-3.8876991999999722E-2</v>
-      </c>
-      <c r="R76">
+        <v>0.48263775000000075</v>
+      </c>
+      <c r="S76">
         <f t="shared" si="12"/>
-        <v>0.48263775000000075</v>
-      </c>
-      <c r="S76">
+        <v>2.2324726351368009</v>
+      </c>
+      <c r="T76">
         <f t="shared" si="13"/>
-        <v>2.2324726351368009</v>
-      </c>
-      <c r="T76">
+        <v>2.2500000000000409E-2</v>
+      </c>
+      <c r="U76" s="1">
         <f t="shared" si="14"/>
-        <v>2.2500000000000409E-2</v>
-      </c>
-      <c r="U76" s="1">
+        <v>0.41743970315399942</v>
+      </c>
+      <c r="V76">
         <f t="shared" si="15"/>
+        <v>-6.4601884747693461E-2</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="16"/>
         <v>0.41743970315399942</v>
       </c>
-      <c r="V76">
+      <c r="X76">
+        <v>1.2771288864314501E-2</v>
+      </c>
+      <c r="Y76">
+        <v>-7.5149494779586795E-2</v>
+      </c>
+      <c r="Z76">
+        <v>-8.9755066182568496E-2</v>
+      </c>
+      <c r="AA76">
         <v>0.41743970315399898</v>
       </c>
-      <c r="W76">
-        <f t="shared" si="18"/>
+      <c r="AB76">
+        <f>U76*P76+AB75</f>
         <v>3.5304000000000002</v>
       </c>
-      <c r="X76">
-        <f t="shared" si="16"/>
+      <c r="AC76">
+        <f>AB76-L76</f>
         <v>0</v>
       </c>
-      <c r="Y76">
+      <c r="AD76">
         <v>0.86456972360610895</v>
       </c>
-      <c r="Z76">
-        <f t="shared" si="17"/>
+      <c r="AE76">
+        <f>AD76*P76+AE75</f>
         <v>3.0686205195750405</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>4.3521000000000001</v>
       </c>
@@ -12528,49 +13842,66 @@
         <v>351.65960000000001</v>
       </c>
       <c r="P77">
+        <f t="shared" si="9"/>
+        <v>5.4400000000000226E-2</v>
+      </c>
+      <c r="Q77">
         <f t="shared" si="10"/>
-        <v>5.4400000000000226E-2</v>
-      </c>
-      <c r="Q77" s="2">
+        <v>-3.2467008000000137E-2</v>
+      </c>
+      <c r="R77" s="2">
         <f t="shared" si="11"/>
-        <v>-3.2467008000000137E-2</v>
-      </c>
-      <c r="R77">
+        <v>0.45017074200000062</v>
+      </c>
+      <c r="S77">
         <f t="shared" si="12"/>
-        <v>0.45017074200000062</v>
-      </c>
-      <c r="S77">
+        <v>2.256961923501601</v>
+      </c>
+      <c r="T77">
         <f t="shared" si="13"/>
-        <v>2.256961923501601</v>
-      </c>
-      <c r="T77">
+        <v>1.4100000000000001E-2</v>
+      </c>
+      <c r="U77" s="1">
         <f t="shared" si="14"/>
-        <v>1.4100000000000001E-2</v>
-      </c>
-      <c r="U77" s="1">
+        <v>0.2591911764705872</v>
+      </c>
+      <c r="V77">
         <f t="shared" si="15"/>
+        <v>-0.15824852668341222</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="16"/>
         <v>0.2591911764705872</v>
       </c>
-      <c r="V77">
+      <c r="X77">
+        <v>2.70423735491931E-3</v>
+      </c>
+      <c r="Y77">
+        <v>-7.2445257424667495E-2</v>
+      </c>
+      <c r="Z77">
+        <v>-9.4125947037274199E-2</v>
+      </c>
+      <c r="AA77">
         <v>0.25919117647058698</v>
       </c>
-      <c r="W77">
-        <f t="shared" si="18"/>
+      <c r="AB77">
+        <f>U77*P77+AB76</f>
         <v>3.5445000000000002</v>
       </c>
-      <c r="X77">
-        <f t="shared" si="16"/>
+      <c r="AC77">
+        <f>AB77-L77</f>
         <v>0</v>
       </c>
-      <c r="Y77">
+      <c r="AD77">
         <v>0.86728316545486395</v>
       </c>
-      <c r="Z77">
-        <f t="shared" si="17"/>
+      <c r="AE77">
+        <f>AD77*P77+AE76</f>
         <v>3.1158007237757852</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>4.4089999999999998</v>
       </c>
@@ -12614,49 +13945,66 @@
         <v>350.31169999999997</v>
       </c>
       <c r="P78">
+        <f t="shared" si="9"/>
+        <v>5.6899999999999729E-2</v>
+      </c>
+      <c r="Q78">
         <f t="shared" si="10"/>
-        <v>5.6899999999999729E-2</v>
-      </c>
-      <c r="Q78" s="2">
+        <v>-2.0185843999999908E-2</v>
+      </c>
+      <c r="R78" s="2">
         <f t="shared" si="11"/>
-        <v>-2.0185843999999908E-2</v>
-      </c>
-      <c r="R78">
+        <v>0.42998489800000073</v>
+      </c>
+      <c r="S78">
         <f t="shared" si="12"/>
-        <v>0.42998489800000073</v>
-      </c>
-      <c r="S78">
+        <v>2.2814280641978009</v>
+      </c>
+      <c r="T78">
         <f t="shared" si="13"/>
-        <v>2.2814280641978009</v>
-      </c>
-      <c r="T78">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="U78" s="1">
         <f t="shared" si="14"/>
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="U78" s="1">
+        <v>0.42530755711775248</v>
+      </c>
+      <c r="V78">
         <f t="shared" si="15"/>
+        <v>0.16611638064716527</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="16"/>
         <v>0.42530755711775248</v>
       </c>
-      <c r="V78">
+      <c r="X78">
+        <v>1.63478183094412E-3</v>
+      </c>
+      <c r="Y78">
+        <v>-7.0810475593723401E-2</v>
+      </c>
+      <c r="Z78">
+        <v>-9.8626844282814305E-2</v>
+      </c>
+      <c r="AA78">
         <v>0.42530755711775198</v>
       </c>
-      <c r="W78">
-        <f t="shared" si="18"/>
+      <c r="AB78">
+        <f>U78*P78+AB77</f>
         <v>3.5687000000000002</v>
       </c>
-      <c r="X78">
-        <f t="shared" si="16"/>
+      <c r="AC78">
+        <f>AB78-L78</f>
         <v>0</v>
       </c>
-      <c r="Y78">
+      <c r="AD78">
         <v>0.87555706501007002</v>
       </c>
-      <c r="Z78">
-        <f t="shared" si="17"/>
+      <c r="AE78">
+        <f>AD78*P78+AE77</f>
         <v>3.1656199207748581</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>4.4683999999999999</v>
       </c>
@@ -12700,49 +14048,66 @@
         <v>351.5034</v>
       </c>
       <c r="P79">
+        <f t="shared" si="9"/>
+        <v>5.9400000000000119E-2</v>
+      </c>
+      <c r="Q79">
         <f t="shared" si="10"/>
-        <v>5.9400000000000119E-2</v>
-      </c>
-      <c r="Q79" s="2">
+        <v>-2.957169600000006E-2</v>
+      </c>
+      <c r="R79" s="2">
         <f t="shared" si="11"/>
-        <v>-2.957169600000006E-2</v>
-      </c>
-      <c r="R79">
+        <v>0.40041320200000069</v>
+      </c>
+      <c r="S79">
         <f t="shared" si="12"/>
-        <v>0.40041320200000069</v>
-      </c>
-      <c r="S79">
+        <v>2.3052126083966011</v>
+      </c>
+      <c r="T79">
         <f t="shared" si="13"/>
-        <v>2.3052126083966011</v>
-      </c>
-      <c r="T79">
+        <v>6.3999999999997392E-3</v>
+      </c>
+      <c r="U79" s="1">
         <f t="shared" si="14"/>
-        <v>6.3999999999997392E-3</v>
-      </c>
-      <c r="U79" s="1">
+        <v>0.10774410774410313</v>
+      </c>
+      <c r="V79">
         <f t="shared" si="15"/>
-        <v>0.10774410774410313</v>
-      </c>
-      <c r="V79">
+        <v>-0.31756344937364933</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="16"/>
+        <v>0.10774410774410315</v>
+      </c>
+      <c r="X79">
+        <v>-2.4798139929771402E-3</v>
+      </c>
+      <c r="Y79">
+        <v>-7.3290289586700502E-2</v>
+      </c>
+      <c r="Z79">
+        <v>-0.103343534876393</v>
+      </c>
+      <c r="AA79">
         <v>0.10774410774410299</v>
       </c>
-      <c r="W79">
-        <f t="shared" si="18"/>
+      <c r="AB79">
+        <f>U79*P79+AB78</f>
         <v>3.5750999999999999</v>
       </c>
-      <c r="X79">
-        <f t="shared" si="16"/>
+      <c r="AC79">
+        <f>AB79-L79</f>
         <v>0</v>
       </c>
-      <c r="Y79">
+      <c r="AD79">
         <v>0.87947869300842196</v>
       </c>
-      <c r="Z79">
-        <f t="shared" si="17"/>
+      <c r="AE79">
+        <f>AD79*P79+AE78</f>
         <v>3.2178609551395585</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>4.5217999999999998</v>
       </c>
@@ -12786,49 +14151,66 @@
         <v>351.21100000000001</v>
       </c>
       <c r="P80">
+        <f t="shared" si="9"/>
+        <v>5.3399999999999892E-2</v>
+      </c>
+      <c r="Q80">
         <f t="shared" si="10"/>
-        <v>5.3399999999999892E-2</v>
-      </c>
-      <c r="Q80" s="2">
+        <v>-1.072805999999998E-2</v>
+      </c>
+      <c r="R80" s="2">
         <f t="shared" si="11"/>
-        <v>-1.072805999999998E-2</v>
-      </c>
-      <c r="R80">
+        <v>0.38968514200000071</v>
+      </c>
+      <c r="S80">
         <f t="shared" si="12"/>
-        <v>0.38968514200000071</v>
-      </c>
-      <c r="S80">
+        <v>2.3260217949794013</v>
+      </c>
+      <c r="T80">
         <f t="shared" si="13"/>
-        <v>2.3260217949794013</v>
-      </c>
-      <c r="T80">
+        <v>9.1999999999998749E-3</v>
+      </c>
+      <c r="U80" s="1">
         <f t="shared" si="14"/>
-        <v>9.1999999999998749E-3</v>
-      </c>
-      <c r="U80" s="1">
+        <v>0.17228464419475456</v>
+      </c>
+      <c r="V80">
         <f t="shared" si="15"/>
-        <v>0.17228464419475456</v>
-      </c>
-      <c r="V80">
+        <v>6.4540536450651428E-2</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="16"/>
+        <v>0.17228464419475459</v>
+      </c>
+      <c r="X80">
+        <v>1.71092932578176E-3</v>
+      </c>
+      <c r="Y80">
+        <v>-7.1579360260918795E-2</v>
+      </c>
+      <c r="Z80">
+        <v>-0.107537108914685</v>
+      </c>
+      <c r="AA80">
         <v>0.17228464419475401</v>
       </c>
-      <c r="W80">
-        <f t="shared" si="18"/>
+      <c r="AB80">
+        <f>U80*P80+AB79</f>
         <v>3.5842999999999998</v>
       </c>
-      <c r="X80">
-        <f t="shared" si="16"/>
+      <c r="AC80">
+        <f>AB80-L80</f>
         <v>0</v>
       </c>
-      <c r="Y80">
+      <c r="AD80">
         <v>0.87855148315429599</v>
       </c>
-      <c r="Z80">
-        <f t="shared" si="17"/>
+      <c r="AE80">
+        <f>AD80*P80+AE79</f>
         <v>3.2647756043399978</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>4.5792999999999999</v>
       </c>
@@ -12872,49 +14254,66 @@
         <v>351.44119999999998</v>
       </c>
       <c r="P81">
+        <f t="shared" si="9"/>
+        <v>5.7500000000000107E-2</v>
+      </c>
+      <c r="Q81">
         <f t="shared" si="10"/>
-        <v>5.7500000000000107E-2</v>
-      </c>
-      <c r="Q81" s="2">
+        <v>-7.8890000000000168E-2</v>
+      </c>
+      <c r="R81" s="2">
         <f t="shared" si="11"/>
-        <v>-7.8890000000000168E-2</v>
-      </c>
-      <c r="R81">
+        <v>0.31079514200000052</v>
+      </c>
+      <c r="S81">
         <f t="shared" si="12"/>
-        <v>0.31079514200000052</v>
-      </c>
-      <c r="S81">
+        <v>2.3438925156444013</v>
+      </c>
+      <c r="T81">
         <f t="shared" si="13"/>
-        <v>2.3438925156444013</v>
-      </c>
-      <c r="T81">
+        <v>8.3999999999999631E-3</v>
+      </c>
+      <c r="U81" s="1">
         <f t="shared" si="14"/>
-        <v>8.3999999999999631E-3</v>
-      </c>
-      <c r="U81" s="1">
+        <v>0.14608695652173823</v>
+      </c>
+      <c r="V81">
         <f t="shared" si="15"/>
-        <v>0.14608695652173823</v>
-      </c>
-      <c r="V81">
+        <v>-2.6197687673016334E-2</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="16"/>
+        <v>0.14608695652173825</v>
+      </c>
+      <c r="X81">
+        <v>-1.3999424409121199E-3</v>
+      </c>
+      <c r="Y81">
+        <v>-7.2979302701830895E-2</v>
+      </c>
+      <c r="Z81">
+        <v>-0.112157589797848</v>
+      </c>
+      <c r="AA81">
         <v>0.146086956521738</v>
       </c>
-      <c r="W81">
-        <f t="shared" si="18"/>
+      <c r="AB81">
+        <f>U81*P81+AB80</f>
         <v>3.5926999999999998</v>
       </c>
-      <c r="X81">
-        <f t="shared" si="16"/>
+      <c r="AC81">
+        <f>AB81-L81</f>
         <v>0</v>
       </c>
-      <c r="Y81">
+      <c r="AD81">
         <v>0.86167025566100997</v>
       </c>
-      <c r="Z81">
-        <f t="shared" si="17"/>
+      <c r="AE81">
+        <f>AD81*P81+AE80</f>
         <v>3.3143216440405059</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>4.6337000000000002</v>
       </c>
@@ -12958,49 +14357,66 @@
         <v>351.33929999999998</v>
       </c>
       <c r="P82">
+        <f t="shared" si="9"/>
+        <v>5.4400000000000226E-2</v>
+      </c>
+      <c r="Q82">
         <f t="shared" si="10"/>
-        <v>5.4400000000000226E-2</v>
-      </c>
-      <c r="Q82" s="2">
+        <v>-1.4554176000000063E-2</v>
+      </c>
+      <c r="R82" s="2">
         <f t="shared" si="11"/>
-        <v>-1.4554176000000063E-2</v>
-      </c>
-      <c r="R82">
+        <v>0.29624096600000044</v>
+      </c>
+      <c r="S82">
         <f t="shared" si="12"/>
-        <v>0.29624096600000044</v>
-      </c>
-      <c r="S82">
+        <v>2.3600080241948014</v>
+      </c>
+      <c r="T82">
         <f t="shared" si="13"/>
-        <v>2.3600080241948014</v>
-      </c>
-      <c r="T82">
+        <v>4.4000000000004036E-3</v>
+      </c>
+      <c r="U82" s="1">
         <f t="shared" si="14"/>
-        <v>4.4000000000004036E-3</v>
-      </c>
-      <c r="U82" s="1">
+        <v>8.0882352941183552E-2</v>
+      </c>
+      <c r="V82">
         <f t="shared" si="15"/>
-        <v>8.0882352941183552E-2</v>
-      </c>
-      <c r="V82">
+        <v>-6.5204603580554674E-2</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="16"/>
+        <v>8.088235294118358E-2</v>
+      </c>
+      <c r="X82">
+        <v>-2.6636752299964402E-3</v>
+      </c>
+      <c r="Y82">
+        <v>-7.5642977931827393E-2</v>
+      </c>
+      <c r="Z82">
+        <v>-0.116636538970756</v>
+      </c>
+      <c r="AA82">
         <v>8.0882352941183497E-2</v>
       </c>
-      <c r="W82">
-        <f t="shared" si="18"/>
+      <c r="AB82">
+        <f>U82*P82+AB81</f>
         <v>3.5971000000000002</v>
       </c>
-      <c r="X82">
-        <f t="shared" si="16"/>
+      <c r="AC82">
+        <f>AB82-L82</f>
         <v>0</v>
       </c>
-      <c r="Y82">
+      <c r="AD82">
         <v>0.86780637502670199</v>
       </c>
-      <c r="Z82">
-        <f t="shared" si="17"/>
+      <c r="AE82">
+        <f>AD82*P82+AE81</f>
         <v>3.3615303108419585</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>4.6886000000000001</v>
       </c>
@@ -13044,49 +14460,66 @@
         <v>351.19779999999997</v>
       </c>
       <c r="P83">
+        <f t="shared" si="9"/>
+        <v>5.4899999999999949E-2</v>
+      </c>
+      <c r="Q83">
         <f t="shared" si="10"/>
-        <v>5.4899999999999949E-2</v>
-      </c>
-      <c r="Q83" s="2">
+        <v>-3.9167855999999966E-2</v>
+      </c>
+      <c r="R83" s="2">
         <f t="shared" si="11"/>
-        <v>-3.9167855999999966E-2</v>
-      </c>
-      <c r="R83">
+        <v>0.25707311000000049</v>
+      </c>
+      <c r="S83">
         <f t="shared" si="12"/>
-        <v>0.25707311000000049</v>
-      </c>
-      <c r="S83">
+        <v>2.3741213379338015</v>
+      </c>
+      <c r="T83">
         <f t="shared" si="13"/>
-        <v>2.3741213379338015</v>
-      </c>
-      <c r="T83">
+        <v>4.3999999999999595E-3</v>
+      </c>
+      <c r="U83" s="1">
         <f t="shared" si="14"/>
-        <v>4.3999999999999595E-3</v>
-      </c>
-      <c r="U83" s="1">
+        <v>8.0145719489981115E-2</v>
+      </c>
+      <c r="V83">
         <f t="shared" si="15"/>
-        <v>8.0145719489981115E-2</v>
-      </c>
-      <c r="V83">
+        <v>-7.3663345120243695E-4</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="16"/>
+        <v>8.0145719489981143E-2</v>
+      </c>
+      <c r="X83">
+        <v>2.48703500255942E-3</v>
+      </c>
+      <c r="Y83">
+        <v>-7.31559429292679E-2</v>
+      </c>
+      <c r="Z83">
+        <v>-0.121119763111534</v>
+      </c>
+      <c r="AA83">
         <v>8.0145719489981102E-2</v>
       </c>
-      <c r="W83">
-        <f t="shared" si="18"/>
+      <c r="AB83">
+        <f>U83*P83+AB82</f>
         <v>3.6015000000000001</v>
       </c>
-      <c r="X83">
-        <f t="shared" si="16"/>
+      <c r="AC83">
+        <f>AB83-L83</f>
         <v>0</v>
       </c>
-      <c r="Y83">
+      <c r="AD83">
         <v>0.88446462154388406</v>
       </c>
-      <c r="Z83">
-        <f t="shared" si="17"/>
+      <c r="AE83">
+        <f>AD83*P83+AE82</f>
         <v>3.4100874185647179</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>4.75</v>
       </c>
@@ -13130,49 +14563,66 @@
         <v>351.25290000000001</v>
       </c>
       <c r="P84">
+        <f t="shared" si="9"/>
+        <v>6.1399999999999899E-2</v>
+      </c>
+      <c r="Q84">
         <f t="shared" si="10"/>
-        <v>6.1399999999999899E-2</v>
-      </c>
-      <c r="Q84" s="2">
+        <v>-3.6043027999999949E-2</v>
+      </c>
+      <c r="R84" s="2">
         <f t="shared" si="11"/>
-        <v>-3.6043027999999949E-2</v>
-      </c>
-      <c r="R84">
+        <v>0.22103008200000054</v>
+      </c>
+      <c r="S84">
         <f t="shared" si="12"/>
-        <v>0.22103008200000054</v>
-      </c>
-      <c r="S84">
+        <v>2.3876925849686015</v>
+      </c>
+      <c r="T84">
         <f t="shared" si="13"/>
-        <v>2.3876925849686015</v>
-      </c>
-      <c r="T84">
+        <v>8.3999999999999631E-3</v>
+      </c>
+      <c r="U84" s="1">
         <f t="shared" si="14"/>
-        <v>8.3999999999999631E-3</v>
-      </c>
-      <c r="U84" s="1">
+        <v>0.13680781758957616</v>
+      </c>
+      <c r="V84">
         <f t="shared" si="15"/>
-        <v>0.13680781758957616</v>
-      </c>
-      <c r="V84">
+        <v>5.6662098099595049E-2</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="16"/>
+        <v>0.13680781758957619</v>
+      </c>
+      <c r="X84">
+        <v>-1.26656368374824E-2</v>
+      </c>
+      <c r="Y84">
+        <v>-8.5821579766750394E-2</v>
+      </c>
+      <c r="Z84">
+        <v>-0.12686250749776701</v>
+      </c>
+      <c r="AA84">
         <v>0.136807817589576</v>
       </c>
-      <c r="W84">
-        <f t="shared" si="18"/>
+      <c r="AB84">
+        <f>U84*P84+AB83</f>
         <v>3.6099000000000001</v>
       </c>
-      <c r="X84">
-        <f t="shared" si="16"/>
+      <c r="AC84">
+        <f>AB84-L84</f>
         <v>0</v>
       </c>
-      <c r="Y84">
+      <c r="AD84">
         <v>0.87484186887741</v>
       </c>
-      <c r="Z84">
-        <f t="shared" si="17"/>
+      <c r="AE84">
+        <f>AD84*P84+AE83</f>
         <v>3.4638027093137906</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>4.8053999999999997</v>
       </c>
@@ -13216,49 +14666,66 @@
         <v>351.49689999999998</v>
       </c>
       <c r="P85">
+        <f t="shared" si="9"/>
+        <v>5.5399999999999672E-2</v>
+      </c>
+      <c r="Q85">
         <f t="shared" si="10"/>
-        <v>5.5399999999999672E-2</v>
-      </c>
-      <c r="Q85" s="2">
+        <v>-2.9643431999999831E-2</v>
+      </c>
+      <c r="R85" s="2">
         <f t="shared" si="11"/>
-        <v>-2.9643431999999831E-2</v>
-      </c>
-      <c r="R85">
+        <v>0.19138665000000071</v>
+      </c>
+      <c r="S85">
         <f t="shared" si="12"/>
-        <v>0.19138665000000071</v>
-      </c>
-      <c r="S85">
+        <v>2.3982954053786014</v>
+      </c>
+      <c r="T85">
         <f t="shared" si="13"/>
-        <v>2.3982954053786014</v>
-      </c>
-      <c r="T85">
+        <v>6.2999999999999723E-3</v>
+      </c>
+      <c r="U85" s="1">
         <f t="shared" si="14"/>
-        <v>6.2999999999999723E-3</v>
-      </c>
-      <c r="U85" s="1">
+        <v>0.11371841155234674</v>
+      </c>
+      <c r="V85">
         <f t="shared" si="15"/>
-        <v>0.11371841155234674</v>
-      </c>
-      <c r="V85">
+        <v>-2.3089406037229421E-2</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="16"/>
+        <v>0.11371841155234677</v>
+      </c>
+      <c r="X85">
+        <v>1.01290317252278E-2</v>
+      </c>
+      <c r="Y85">
+        <v>-7.5692548041522506E-2</v>
+      </c>
+      <c r="Z85">
+        <v>-0.13163824291711901</v>
+      </c>
+      <c r="AA85">
         <v>0.11371841155234599</v>
       </c>
-      <c r="W85">
-        <f t="shared" si="18"/>
+      <c r="AB85">
+        <f>U85*P85+AB84</f>
         <v>3.6162000000000001</v>
       </c>
-      <c r="X85">
-        <f t="shared" si="16"/>
+      <c r="AC85">
+        <f>AB85-L85</f>
         <v>0</v>
       </c>
-      <c r="Y85">
+      <c r="AD85">
         <v>0.87638658285140902</v>
       </c>
-      <c r="Z85">
-        <f t="shared" si="17"/>
+      <c r="AE85">
+        <f>AD85*P85+AE84</f>
         <v>3.5123545260037585</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>4.8658000000000001</v>
       </c>
@@ -13302,49 +14769,66 @@
         <v>351.75139999999999</v>
       </c>
       <c r="P86">
+        <f t="shared" si="9"/>
+        <v>6.0400000000000453E-2</v>
+      </c>
+      <c r="Q86">
         <f t="shared" si="10"/>
-        <v>6.0400000000000453E-2</v>
-      </c>
-      <c r="Q86" s="2">
+        <v>-1.0299408000000078E-2</v>
+      </c>
+      <c r="R86" s="2">
         <f t="shared" si="11"/>
-        <v>-1.0299408000000078E-2</v>
-      </c>
-      <c r="R86">
+        <v>0.18108724200000065</v>
+      </c>
+      <c r="S86">
         <f t="shared" si="12"/>
-        <v>0.18108724200000065</v>
-      </c>
-      <c r="S86">
+        <v>2.4092330747954014</v>
+      </c>
+      <c r="T86">
         <f t="shared" si="13"/>
-        <v>2.4092330747954014</v>
-      </c>
-      <c r="T86">
+        <v>5.1000000000001044E-3</v>
+      </c>
+      <c r="U86" s="1">
         <f t="shared" si="14"/>
-        <v>5.1000000000001044E-3</v>
-      </c>
-      <c r="U86" s="1">
+        <v>8.4437086092716329E-2</v>
+      </c>
+      <c r="V86">
         <f t="shared" si="15"/>
-        <v>8.4437086092716329E-2</v>
-      </c>
-      <c r="V86">
+        <v>-2.9281325459630414E-2</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="16"/>
+        <v>8.4437086092716357E-2</v>
+      </c>
+      <c r="X86">
+        <v>-2.70537054166197E-3</v>
+      </c>
+      <c r="Y86">
+        <v>-7.8397918583184498E-2</v>
+      </c>
+      <c r="Z86">
+        <v>-0.13698513403266099</v>
+      </c>
+      <c r="AA86">
         <v>8.4437086092716301E-2</v>
       </c>
-      <c r="W86">
-        <f t="shared" si="18"/>
+      <c r="AB86">
+        <f>U86*P86+AB85</f>
         <v>3.6213000000000002</v>
       </c>
-      <c r="X86">
-        <f t="shared" si="16"/>
+      <c r="AC86">
+        <f>AB86-L86</f>
         <v>0</v>
       </c>
-      <c r="Y86">
+      <c r="AD86">
         <v>0.867417871952056</v>
       </c>
-      <c r="Z86">
-        <f t="shared" si="17"/>
+      <c r="AE86">
+        <f>AD86*P86+AE85</f>
         <v>3.5647465654696631</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>4.9362000000000004</v>
       </c>
@@ -13388,49 +14872,66 @@
         <v>352.23039999999997</v>
       </c>
       <c r="P87">
+        <f t="shared" si="9"/>
+        <v>7.040000000000024E-2</v>
+      </c>
+      <c r="Q87">
         <f t="shared" si="10"/>
-        <v>7.040000000000024E-2</v>
-      </c>
-      <c r="Q87" s="2">
+        <v>5.6573440000000207E-3</v>
+      </c>
+      <c r="R87" s="2">
         <f t="shared" si="11"/>
-        <v>5.6573440000000207E-3</v>
-      </c>
-      <c r="R87">
+        <v>0.18674458600000066</v>
+      </c>
+      <c r="S87">
         <f t="shared" si="12"/>
-        <v>0.18674458600000066</v>
-      </c>
-      <c r="S87">
+        <v>2.4223798936498016</v>
+      </c>
+      <c r="T87">
         <f t="shared" si="13"/>
-        <v>2.4223798936498016</v>
-      </c>
-      <c r="T87">
+        <v>2.6999999999999247E-3</v>
+      </c>
+      <c r="U87" s="1">
         <f t="shared" si="14"/>
-        <v>2.6999999999999247E-3</v>
-      </c>
-      <c r="U87" s="1">
+        <v>3.8352272727271527E-2</v>
+      </c>
+      <c r="V87">
         <f t="shared" si="15"/>
-        <v>3.8352272727271527E-2</v>
-      </c>
-      <c r="V87">
+        <v>-4.6084813365444802E-2</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="16"/>
+        <v>3.8352272727271555E-2</v>
+      </c>
+      <c r="X87">
+        <v>8.8106738403439504E-3</v>
+      </c>
+      <c r="Y87">
+        <v>-6.9587244742840601E-2</v>
+      </c>
+      <c r="Z87">
+        <v>-0.14262023231154</v>
+      </c>
+      <c r="AA87">
         <v>3.8352272727265199E-2</v>
       </c>
-      <c r="W87">
-        <f t="shared" si="18"/>
+      <c r="AB87">
+        <f>U87*P87+AB86</f>
         <v>3.6240000000000001</v>
       </c>
-      <c r="X87">
-        <f t="shared" si="16"/>
+      <c r="AC87">
+        <f>AB87-L87</f>
         <v>0</v>
       </c>
-      <c r="Y87">
+      <c r="AD87">
         <v>0.863164663314819</v>
       </c>
-      <c r="Z87">
-        <f t="shared" si="17"/>
+      <c r="AE87">
+        <f>AD87*P87+AE86</f>
         <v>3.6255133577670264</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>5.0000999999999998</v>
       </c>
@@ -13474,49 +14975,66 @@
         <v>352.74079999999998</v>
       </c>
       <c r="P88">
+        <f t="shared" si="9"/>
+        <v>6.3899999999999402E-2</v>
+      </c>
+      <c r="Q88">
         <f t="shared" si="10"/>
-        <v>6.3899999999999402E-2</v>
-      </c>
-      <c r="Q88" s="2">
+        <v>3.1874597999999706E-2</v>
+      </c>
+      <c r="R88" s="2">
         <f t="shared" si="11"/>
-        <v>3.1874597999999706E-2</v>
-      </c>
-      <c r="R88">
+        <v>0.21861918400000036</v>
+      </c>
+      <c r="S88">
         <f t="shared" si="12"/>
-        <v>0.21861918400000036</v>
-      </c>
-      <c r="S88">
+        <v>2.4363496595074015</v>
+      </c>
+      <c r="T88">
         <f t="shared" si="13"/>
-        <v>2.4363496595074015</v>
-      </c>
-      <c r="T88">
+        <v>-7.0000000000014495E-4</v>
+      </c>
+      <c r="U88" s="1">
         <f t="shared" si="14"/>
-        <v>-7.0000000000014495E-4</v>
-      </c>
-      <c r="U88" s="1">
+        <v>-1.0954616588421777E-2</v>
+      </c>
+      <c r="V88">
         <f t="shared" si="15"/>
-        <v>-1.0954616588421777E-2</v>
-      </c>
-      <c r="V88">
+        <v>-4.9306889315693304E-2</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="16"/>
+        <v>-1.0954616588421749E-2</v>
+      </c>
+      <c r="X88">
+        <v>-1.1199027067050301E-3</v>
+      </c>
+      <c r="Y88">
+        <v>-7.0707147449545593E-2</v>
+      </c>
+      <c r="Z88">
+        <v>-0.14778252004051201</v>
+      </c>
+      <c r="AA88">
         <v>-1.09546165884148E-2</v>
       </c>
-      <c r="W88">
-        <f t="shared" si="18"/>
+      <c r="AB88">
+        <f>U88*P88+AB87</f>
         <v>3.6233</v>
       </c>
-      <c r="X88">
-        <f t="shared" si="16"/>
+      <c r="AC88">
+        <f>AB88-L88</f>
         <v>0</v>
       </c>
-      <c r="Y88">
+      <c r="AD88">
         <v>0.85610789060592596</v>
       </c>
-      <c r="Z88">
-        <f t="shared" si="17"/>
+      <c r="AE88">
+        <f>AD88*P88+AE87</f>
         <v>3.6802186519767446</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>5.0679999999999996</v>
       </c>
@@ -13560,49 +15078,66 @@
         <v>353.79340000000002</v>
       </c>
       <c r="P89">
+        <f t="shared" si="9"/>
+        <v>6.7899999999999849E-2</v>
+      </c>
+      <c r="Q89">
         <f t="shared" si="10"/>
-        <v>6.7899999999999849E-2</v>
-      </c>
-      <c r="Q89" s="2">
+        <v>2.1493065999999957E-2</v>
+      </c>
+      <c r="R89" s="2">
         <f t="shared" si="11"/>
-        <v>2.1493065999999957E-2</v>
-      </c>
-      <c r="R89">
+        <v>0.2401122500000003</v>
+      </c>
+      <c r="S89">
         <f t="shared" si="12"/>
-        <v>0.2401122500000003</v>
-      </c>
-      <c r="S89">
+        <v>2.4526532812824016</v>
+      </c>
+      <c r="T89">
         <f t="shared" si="13"/>
-        <v>2.4526532812824016</v>
-      </c>
-      <c r="T89">
+        <v>-2.8000000000001357E-3</v>
+      </c>
+      <c r="U89" s="1">
         <f t="shared" si="14"/>
-        <v>-2.8000000000001357E-3</v>
-      </c>
-      <c r="U89" s="1">
+        <v>-4.1237113402063943E-2</v>
+      </c>
+      <c r="V89">
         <f t="shared" si="15"/>
-        <v>-4.1237113402063943E-2</v>
-      </c>
-      <c r="V89">
+        <v>-3.0282496813642167E-2</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="16"/>
+        <v>-4.1237113402063916E-2</v>
+      </c>
+      <c r="X89">
+        <v>-4.8966556787490801E-3</v>
+      </c>
+      <c r="Y89">
+        <v>-7.5603803128294705E-2</v>
+      </c>
+      <c r="Z89">
+        <v>-0.15351842514521599</v>
+      </c>
+      <c r="AA89">
         <v>-4.1237113402063402E-2</v>
       </c>
-      <c r="W89">
-        <f t="shared" si="18"/>
+      <c r="AB89">
+        <f>U89*P89+AB88</f>
         <v>3.6204999999999998</v>
       </c>
-      <c r="X89">
-        <f t="shared" si="16"/>
+      <c r="AC89">
+        <f>AB89-L89</f>
         <v>0</v>
       </c>
-      <c r="Y89">
+      <c r="AD89">
         <v>0.84452873468399003</v>
       </c>
-      <c r="Z89">
-        <f t="shared" si="17"/>
+      <c r="AE89">
+        <f>AD89*P89+AE88</f>
         <v>3.7375621530617873</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>5.1368999999999998</v>
       </c>
@@ -13646,49 +15181,66 @@
         <v>353.88619999999997</v>
       </c>
       <c r="P90">
+        <f t="shared" si="9"/>
+        <v>6.8900000000000183E-2</v>
+      </c>
+      <c r="Q90">
         <f t="shared" si="10"/>
-        <v>6.8900000000000183E-2</v>
-      </c>
-      <c r="Q90" s="2">
+        <v>-2.3767744000000066E-2</v>
+      </c>
+      <c r="R90" s="2">
         <f t="shared" si="11"/>
-        <v>-2.3767744000000066E-2</v>
-      </c>
-      <c r="R90">
+        <v>0.21634450600000024</v>
+      </c>
+      <c r="S90">
         <f t="shared" si="12"/>
-        <v>0.21634450600000024</v>
-      </c>
-      <c r="S90">
+        <v>2.4675594177458016</v>
+      </c>
+      <c r="T90">
         <f t="shared" si="13"/>
-        <v>2.4675594177458016</v>
-      </c>
-      <c r="T90">
+        <v>6.0000000000037801E-4</v>
+      </c>
+      <c r="U90" s="1">
         <f t="shared" si="14"/>
-        <v>6.0000000000037801E-4</v>
-      </c>
-      <c r="U90" s="1">
+        <v>8.7082728592217194E-3</v>
+      </c>
+      <c r="V90">
         <f t="shared" si="15"/>
-        <v>8.7082728592217194E-3</v>
-      </c>
-      <c r="V90">
+        <v>4.9945386261285661E-2</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="16"/>
+        <v>8.7082728592217454E-3</v>
+      </c>
+      <c r="X90">
+        <v>-9.5168221741914697E-3</v>
+      </c>
+      <c r="Y90">
+        <v>-8.5120625302486194E-2</v>
+      </c>
+      <c r="Z90">
+        <v>-0.159952182470079</v>
+      </c>
+      <c r="AA90">
         <v>8.7082728592218304E-3</v>
       </c>
-      <c r="W90">
-        <f t="shared" si="18"/>
+      <c r="AB90">
+        <f>U90*P90+AB89</f>
         <v>3.6211000000000002</v>
       </c>
-      <c r="X90">
-        <f t="shared" si="16"/>
+      <c r="AC90">
+        <f>AB90-L90</f>
         <v>0</v>
       </c>
-      <c r="Y90">
+      <c r="AD90">
         <v>0.82660669088363603</v>
       </c>
-      <c r="Z90">
-        <f t="shared" si="17"/>
+      <c r="AE90">
+        <f>AD90*P90+AE89</f>
         <v>3.79451535406367</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>5.2027999999999999</v>
       </c>
@@ -13732,49 +15284,66 @@
         <v>354.33249999999998</v>
       </c>
       <c r="P91">
+        <f t="shared" si="9"/>
+        <v>6.590000000000007E-2</v>
+      </c>
+      <c r="Q91">
         <f t="shared" si="10"/>
-        <v>6.590000000000007E-2</v>
-      </c>
-      <c r="Q91" s="2">
+        <v>9.8810460000000114E-3</v>
+      </c>
+      <c r="R91" s="2">
         <f t="shared" si="11"/>
-        <v>9.8810460000000114E-3</v>
-      </c>
-      <c r="R91">
+        <v>0.22622555200000025</v>
+      </c>
+      <c r="S91">
         <f t="shared" si="12"/>
-        <v>0.22622555200000025</v>
-      </c>
-      <c r="S91">
+        <v>2.4824676816226017</v>
+      </c>
+      <c r="T91">
         <f t="shared" si="13"/>
-        <v>2.4824676816226017</v>
-      </c>
-      <c r="T91">
+        <v>5.9999999999993392E-4</v>
+      </c>
+      <c r="U91" s="1">
         <f t="shared" si="14"/>
-        <v>5.9999999999993392E-4</v>
-      </c>
-      <c r="U91" s="1">
+        <v>9.1047040971158309E-3</v>
+      </c>
+      <c r="V91">
         <f t="shared" si="15"/>
-        <v>9.1047040971158309E-3</v>
-      </c>
-      <c r="V91">
+        <v>3.9643123789411157E-4</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="16"/>
+        <v>9.1047040971158569E-3</v>
+      </c>
+      <c r="X91">
+        <v>-3.61176347360014E-3</v>
+      </c>
+      <c r="Y91">
+        <v>-8.8732388776086302E-2</v>
+      </c>
+      <c r="Z91">
+        <v>-0.16632779425960401</v>
+      </c>
+      <c r="AA91">
         <v>9.1047040971158292E-3</v>
       </c>
-      <c r="W91">
-        <f t="shared" si="18"/>
+      <c r="AB91">
+        <f>U91*P91+AB90</f>
         <v>3.6217000000000001</v>
       </c>
-      <c r="X91">
-        <f t="shared" si="16"/>
+      <c r="AC91">
+        <f>AB91-L91</f>
         <v>0</v>
       </c>
-      <c r="Y91">
+      <c r="AD91">
         <v>0.82861721515655495</v>
       </c>
-      <c r="Z91">
-        <f t="shared" si="17"/>
+      <c r="AE91">
+        <f>AD91*P91+AE90</f>
         <v>3.8491212285424869</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>5.2742000000000004</v>
       </c>
@@ -13818,49 +15387,66 @@
         <v>354.6798</v>
       </c>
       <c r="P92">
+        <f t="shared" si="9"/>
+        <v>7.1400000000000574E-2</v>
+      </c>
+      <c r="Q92">
         <f t="shared" si="10"/>
-        <v>7.1400000000000574E-2</v>
-      </c>
-      <c r="Q92" s="2">
+        <v>-2.2461012000000179E-2</v>
+      </c>
+      <c r="R92" s="2">
         <f t="shared" si="11"/>
-        <v>-2.2461012000000179E-2</v>
-      </c>
-      <c r="R92">
+        <v>0.20376454000000008</v>
+      </c>
+      <c r="S92">
         <f t="shared" si="12"/>
-        <v>0.20376454000000008</v>
-      </c>
-      <c r="S92">
+        <v>2.4970164697786017</v>
+      </c>
+      <c r="T92">
         <f t="shared" si="13"/>
-        <v>2.4970164697786017</v>
-      </c>
-      <c r="T92">
+        <v>-3.00000000000189E-4</v>
+      </c>
+      <c r="U92" s="1">
         <f t="shared" si="14"/>
-        <v>-3.00000000000189E-4</v>
-      </c>
-      <c r="U92" s="1">
+        <v>-4.2016806722715207E-3</v>
+      </c>
+      <c r="V92">
         <f t="shared" si="15"/>
-        <v>-4.2016806722715207E-3</v>
-      </c>
-      <c r="V92">
+        <v>-1.3306384769387352E-2</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="16"/>
+        <v>-4.2016806722714947E-3</v>
+      </c>
+      <c r="X92">
+        <v>-4.1207051835954103E-3</v>
+      </c>
+      <c r="Y92">
+        <v>-9.2853093959681707E-2</v>
+      </c>
+      <c r="Z92">
+        <v>-0.17348630122521999</v>
+      </c>
+      <c r="AA92">
         <v>-4.2016806722715199E-3</v>
       </c>
-      <c r="W92">
-        <f t="shared" si="18"/>
+      <c r="AB92">
+        <f>U92*P92+AB91</f>
         <v>3.6214</v>
       </c>
-      <c r="X92">
-        <f t="shared" si="16"/>
+      <c r="AC92">
+        <f>AB92-L92</f>
         <v>0</v>
       </c>
-      <c r="Y92">
+      <c r="AD92">
         <v>0.82501369714736905</v>
       </c>
-      <c r="Z92">
-        <f t="shared" si="17"/>
+      <c r="AE92">
+        <f>AD92*P92+AE91</f>
         <v>3.9080272065188097</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>5.3421000000000003</v>
       </c>
@@ -13904,49 +15490,66 @@
         <v>355.17489999999998</v>
       </c>
       <c r="P93">
+        <f t="shared" si="9"/>
+        <v>6.7899999999999849E-2</v>
+      </c>
+      <c r="Q93">
         <f t="shared" si="10"/>
-        <v>6.7899999999999849E-2</v>
-      </c>
-      <c r="Q93" s="2">
+        <v>3.0542777999999937E-2</v>
+      </c>
+      <c r="R93" s="2">
         <f t="shared" si="11"/>
-        <v>3.0542777999999937E-2</v>
-      </c>
-      <c r="R93">
+        <v>0.23430731800000001</v>
+      </c>
+      <c r="S93">
         <f t="shared" si="12"/>
-        <v>0.23430731800000001</v>
-      </c>
-      <c r="S93">
+        <v>2.5129259366708019</v>
+      </c>
+      <c r="T93">
         <f t="shared" si="13"/>
-        <v>2.5129259366708019</v>
-      </c>
-      <c r="T93">
+        <v>-1.1999999999998678E-3</v>
+      </c>
+      <c r="U93" s="1">
         <f t="shared" si="14"/>
-        <v>-1.1999999999998678E-3</v>
-      </c>
-      <c r="U93" s="1">
+        <v>-1.7673048600881744E-2</v>
+      </c>
+      <c r="V93">
         <f t="shared" si="15"/>
-        <v>-1.7673048600881744E-2</v>
-      </c>
-      <c r="V93">
+        <v>-1.3471367928610223E-2</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="16"/>
+        <v>-1.7673048600881716E-2</v>
+      </c>
+      <c r="X93">
+        <v>-6.5028620883822398E-3</v>
+      </c>
+      <c r="Y93">
+        <v>-9.9355956048064006E-2</v>
+      </c>
+      <c r="Z93">
+        <v>-0.18061853622981899</v>
+      </c>
+      <c r="AA93">
         <v>-1.7673048600881699E-2</v>
       </c>
-      <c r="W93">
-        <f t="shared" si="18"/>
+      <c r="AB93">
+        <f>U93*P93+AB92</f>
         <v>3.6202000000000001</v>
       </c>
-      <c r="X93">
-        <f t="shared" si="16"/>
+      <c r="AC93">
+        <f>AB93-L93</f>
         <v>0</v>
       </c>
-      <c r="Y93">
+      <c r="AD93">
         <v>0.82183676958084095</v>
       </c>
-      <c r="Z93">
-        <f t="shared" si="17"/>
+      <c r="AE93">
+        <f>AD93*P93+AE92</f>
         <v>3.9638299231733489</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>5.4143999999999997</v>
       </c>
@@ -13990,49 +15593,66 @@
         <v>354.96230000000003</v>
       </c>
       <c r="P94">
+        <f t="shared" si="9"/>
+        <v>7.2299999999999365E-2</v>
+      </c>
+      <c r="Q94">
         <f t="shared" si="10"/>
-        <v>7.2299999999999365E-2</v>
-      </c>
-      <c r="Q94" s="2">
+        <v>2.3665235999999791E-2</v>
+      </c>
+      <c r="R94" s="2">
         <f t="shared" si="11"/>
-        <v>2.3665235999999791E-2</v>
-      </c>
-      <c r="R94">
+        <v>0.2579725539999998</v>
+      </c>
+      <c r="S94">
         <f t="shared" si="12"/>
-        <v>0.2579725539999998</v>
-      </c>
-      <c r="S94">
+        <v>2.5315773523250016</v>
+      </c>
+      <c r="T94">
         <f t="shared" si="13"/>
-        <v>2.5315773523250016</v>
-      </c>
-      <c r="T94">
+        <v>-1.0000000000021103E-4</v>
+      </c>
+      <c r="U94" s="1">
         <f t="shared" si="14"/>
-        <v>-1.0000000000021103E-4</v>
-      </c>
-      <c r="U94" s="1">
+        <v>-1.3831258644565962E-3</v>
+      </c>
+      <c r="V94">
         <f t="shared" si="15"/>
-        <v>-1.3831258644565962E-3</v>
-      </c>
-      <c r="V94">
+        <v>1.6289922736425148E-2</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="16"/>
+        <v>-1.3831258644565678E-3</v>
+      </c>
+      <c r="X94">
+        <v>3.7532076239585798E-3</v>
+      </c>
+      <c r="Y94">
+        <v>-9.5602748424105405E-2</v>
+      </c>
+      <c r="Z94">
+        <v>-0.187934468893249</v>
+      </c>
+      <c r="AA94">
         <v>-1.3831258644565901E-3</v>
       </c>
-      <c r="W94">
-        <f t="shared" si="18"/>
+      <c r="AB94">
+        <f>U94*P94+AB93</f>
         <v>3.6200999999999999</v>
       </c>
-      <c r="X94">
-        <f t="shared" si="16"/>
+      <c r="AC94">
+        <f>AB94-L94</f>
         <v>0</v>
       </c>
-      <c r="Y94">
+      <c r="AD94">
         <v>0.81478446722030595</v>
       </c>
-      <c r="Z94">
-        <f t="shared" si="17"/>
+      <c r="AE94">
+        <f>AD94*P94+AE93</f>
         <v>4.0227388401533766</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>5.4644000000000004</v>
       </c>
@@ -14076,49 +15696,66 @@
         <v>355.315</v>
       </c>
       <c r="P95">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="Q95">
         <f t="shared" si="10"/>
-        <v>5.0000000000000711E-2</v>
-      </c>
-      <c r="Q95" s="2">
+        <v>-2.5970000000000372E-3</v>
+      </c>
+      <c r="R95" s="2">
         <f t="shared" si="11"/>
-        <v>-2.5970000000000372E-3</v>
-      </c>
-      <c r="R95">
+        <v>0.25537555399999978</v>
+      </c>
+      <c r="S95">
         <f t="shared" si="12"/>
-        <v>0.25537555399999978</v>
-      </c>
-      <c r="S95">
+        <v>2.5443461300250019</v>
+      </c>
+      <c r="T95">
         <f t="shared" si="13"/>
-        <v>2.5443461300250019</v>
-      </c>
-      <c r="T95">
+        <v>-1.9999999999997797E-4</v>
+      </c>
+      <c r="U95" s="1">
         <f t="shared" si="14"/>
-        <v>-1.9999999999997797E-4</v>
-      </c>
-      <c r="U95" s="1">
+        <v>-3.9999999999995022E-3</v>
+      </c>
+      <c r="V95">
         <f t="shared" si="15"/>
-        <v>-3.9999999999995022E-3</v>
-      </c>
-      <c r="V95">
+        <v>-2.6168741355429058E-3</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="16"/>
+        <v>-3.9999999999994736E-3</v>
+      </c>
+      <c r="X95">
+        <v>-1.41689181327819E-3</v>
+      </c>
+      <c r="Y95">
+        <v>-9.7019640237383603E-2</v>
+      </c>
+      <c r="Z95">
+        <v>-0.19304491132375201</v>
+      </c>
+      <c r="AA95">
         <v>-3.9999999999994996E-3</v>
       </c>
-      <c r="W95">
-        <f t="shared" si="18"/>
+      <c r="AB95">
+        <f>U95*P95+AB94</f>
         <v>3.6198999999999999</v>
       </c>
-      <c r="X95">
-        <f t="shared" si="16"/>
+      <c r="AC95">
+        <f>AB95-L95</f>
         <v>0</v>
       </c>
-      <c r="Y95">
+      <c r="AD95">
         <v>0.79775327444076505</v>
       </c>
-      <c r="Z95">
-        <f t="shared" si="17"/>
+      <c r="AE95">
+        <f>AD95*P95+AE94</f>
         <v>4.062626503875415</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>5.5338000000000003</v>
       </c>
@@ -14162,49 +15799,66 @@
         <v>355.36309999999997</v>
       </c>
       <c r="P96">
+        <f t="shared" si="9"/>
+        <v>6.9399999999999906E-2</v>
+      </c>
+      <c r="Q96">
         <f t="shared" si="10"/>
-        <v>6.9399999999999906E-2</v>
-      </c>
-      <c r="Q96" s="2">
+        <v>2.9925279999999965E-3</v>
+      </c>
+      <c r="R96" s="2">
         <f t="shared" si="11"/>
-        <v>2.9925279999999965E-3</v>
-      </c>
-      <c r="R96">
+        <v>0.25836808199999978</v>
+      </c>
+      <c r="S96">
         <f t="shared" si="12"/>
-        <v>0.25836808199999978</v>
-      </c>
-      <c r="S96">
+        <v>2.5622768749158018</v>
+      </c>
+      <c r="T96">
         <f t="shared" si="13"/>
-        <v>2.5622768749158018</v>
-      </c>
-      <c r="T96">
+        <v>7.0000000000014495E-4</v>
+      </c>
+      <c r="U96" s="1">
         <f t="shared" si="14"/>
-        <v>7.0000000000014495E-4</v>
-      </c>
-      <c r="U96" s="1">
+        <v>1.0086455331414206E-2</v>
+      </c>
+      <c r="V96">
         <f t="shared" si="15"/>
-        <v>1.0086455331414206E-2</v>
-      </c>
-      <c r="V96">
+        <v>1.4086455331413708E-2</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="16"/>
+        <v>1.0086455331414234E-2</v>
+      </c>
+      <c r="X96">
+        <v>3.1664564739912701E-3</v>
+      </c>
+      <c r="Y96">
+        <v>-9.3853183763392301E-2</v>
+      </c>
+      <c r="Z96">
+        <v>-0.19995145597347699</v>
+      </c>
+      <c r="AA96">
         <v>1.0086455331414199E-2</v>
       </c>
-      <c r="W96">
-        <f t="shared" si="18"/>
+      <c r="AB96">
+        <f>U96*P96+AB95</f>
         <v>3.6206</v>
       </c>
-      <c r="X96">
-        <f t="shared" si="16"/>
+      <c r="AC96">
+        <f>AB96-L96</f>
         <v>0</v>
       </c>
-      <c r="Y96">
+      <c r="AD96">
         <v>0.79950523376464799</v>
       </c>
-      <c r="Z96">
-        <f t="shared" si="17"/>
+      <c r="AE96">
+        <f>AD96*P96+AE95</f>
         <v>4.1181121670986816</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>5.6075999999999997</v>
       </c>
@@ -14248,49 +15902,66 @@
         <v>355.19830000000002</v>
       </c>
       <c r="P97">
+        <f t="shared" si="9"/>
+        <v>7.3799999999999422E-2</v>
+      </c>
+      <c r="Q97">
         <f t="shared" si="10"/>
-        <v>7.3799999999999422E-2</v>
-      </c>
-      <c r="Q97" s="2">
+        <v>2.3794595999999814E-2</v>
+      </c>
+      <c r="R97" s="2">
         <f t="shared" si="11"/>
-        <v>2.3794595999999814E-2</v>
-      </c>
-      <c r="R97">
+        <v>0.28216267799999961</v>
+      </c>
+      <c r="S97">
         <f t="shared" si="12"/>
-        <v>0.28216267799999961</v>
-      </c>
-      <c r="S97">
+        <v>2.5831004805522015</v>
+      </c>
+      <c r="T97">
         <f t="shared" si="13"/>
-        <v>2.5831004805522015</v>
-      </c>
-      <c r="T97">
+        <v>1.1000000000001009E-3</v>
+      </c>
+      <c r="U97" s="1">
         <f t="shared" si="14"/>
-        <v>1.1000000000001009E-3</v>
-      </c>
-      <c r="U97" s="1">
+        <v>1.4905149051491999E-2</v>
+      </c>
+      <c r="V97">
         <f t="shared" si="15"/>
+        <v>4.8186937200777932E-3</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="16"/>
+        <v>1.4905149051492027E-2</v>
+      </c>
+      <c r="X97">
+        <v>-7.7713383361697197E-3</v>
+      </c>
+      <c r="Y97">
+        <v>-0.10162452209956201</v>
+      </c>
+      <c r="Z97">
+        <v>-0.20784445839374099</v>
+      </c>
+      <c r="AA97">
         <v>1.4905149051491999E-2</v>
       </c>
-      <c r="V97">
-        <v>1.4905149051491999E-2</v>
-      </c>
-      <c r="W97">
-        <f t="shared" si="18"/>
+      <c r="AB97">
+        <f>U97*P97+AB96</f>
         <v>3.6217000000000001</v>
       </c>
-      <c r="X97">
-        <f t="shared" si="16"/>
+      <c r="AC97">
+        <f>AB97-L97</f>
         <v>0</v>
       </c>
-      <c r="Y97">
+      <c r="AD97">
         <v>0.79671239852905196</v>
       </c>
-      <c r="Z97">
-        <f t="shared" si="17"/>
+      <c r="AE97">
+        <f>AD97*P97+AE96</f>
         <v>4.176909542110125</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>5.6795</v>
       </c>
@@ -14334,45 +16005,62 @@
         <v>355.11149999999998</v>
       </c>
       <c r="P98">
+        <f t="shared" si="9"/>
+        <v>7.1900000000000297E-2</v>
+      </c>
+      <c r="Q98">
         <f t="shared" si="10"/>
-        <v>7.1900000000000297E-2</v>
-      </c>
-      <c r="Q98" s="2">
+        <v>-6.6938900000000278E-3</v>
+      </c>
+      <c r="R98" s="2">
         <f t="shared" si="11"/>
-        <v>-6.6938900000000278E-3</v>
-      </c>
-      <c r="R98">
+        <v>0.27546878799999958</v>
+      </c>
+      <c r="S98">
         <f t="shared" si="12"/>
-        <v>0.27546878799999958</v>
-      </c>
-      <c r="S98">
+        <v>2.6029066864094017</v>
+      </c>
+      <c r="T98">
         <f t="shared" si="13"/>
-        <v>2.6029066864094017</v>
-      </c>
-      <c r="T98">
+        <v>2.9999999999974492E-4</v>
+      </c>
+      <c r="U98" s="1">
         <f t="shared" si="14"/>
-        <v>2.9999999999974492E-4</v>
-      </c>
-      <c r="U98" s="1">
+        <v>4.1724617524303712E-3</v>
+      </c>
+      <c r="V98">
         <f t="shared" si="15"/>
-        <v>4.1724617524303712E-3</v>
-      </c>
-      <c r="V98">
+        <v>-1.0732687299061627E-2</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="16"/>
+        <v>4.1724617524303998E-3</v>
+      </c>
+      <c r="X98">
+        <v>4.9690706655383101E-3</v>
+      </c>
+      <c r="Y98">
+        <v>-9.6655451434023695E-2</v>
+      </c>
+      <c r="Z98">
+        <v>-0.21527505260117499</v>
+      </c>
+      <c r="AA98">
         <v>4.1724617524303703E-3</v>
       </c>
-      <c r="W98">
-        <f t="shared" si="18"/>
+      <c r="AB98">
+        <f>U98*P98+AB97</f>
         <v>3.6219999999999999</v>
       </c>
-      <c r="X98">
-        <f t="shared" si="16"/>
+      <c r="AC98">
+        <f>AB98-L98</f>
         <v>0</v>
       </c>
-      <c r="Y98">
+      <c r="AD98">
         <v>0.78534424304962103</v>
       </c>
-      <c r="Z98">
-        <f t="shared" si="17"/>
+      <c r="AE98">
+        <f>AD98*P98+AE97</f>
         <v>4.2333757931853926</v>
       </c>
     </row>
